--- a/stock_historical_data/1mo/GUJGASLTD.NS.xlsx
+++ b/stock_historical_data/1mo/GUJGASLTD.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P105"/>
+  <dimension ref="A1:Q106"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -518,6 +518,11 @@
           <t>two_line_structure</t>
         </is>
       </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>backup</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -568,6 +573,9 @@
       <c r="P2" t="n">
         <v>0</v>
       </c>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -618,6 +626,9 @@
       <c r="P3" t="n">
         <v>0</v>
       </c>
+      <c r="Q3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -668,6 +679,9 @@
       <c r="P4" t="n">
         <v>0</v>
       </c>
+      <c r="Q4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -718,6 +732,9 @@
       <c r="P5" t="n">
         <v>0</v>
       </c>
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -768,6 +785,9 @@
       <c r="P6" t="n">
         <v>0</v>
       </c>
+      <c r="Q6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -818,6 +838,9 @@
       <c r="P7" t="n">
         <v>0</v>
       </c>
+      <c r="Q7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -868,6 +891,9 @@
       <c r="P8" t="n">
         <v>0</v>
       </c>
+      <c r="Q8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -918,6 +944,9 @@
       <c r="P9" t="n">
         <v>0</v>
       </c>
+      <c r="Q9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -968,6 +997,9 @@
       <c r="P10" t="n">
         <v>0</v>
       </c>
+      <c r="Q10" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -1018,6 +1050,9 @@
       <c r="P11" t="n">
         <v>0</v>
       </c>
+      <c r="Q11" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -1068,6 +1103,9 @@
       <c r="P12" t="n">
         <v>0</v>
       </c>
+      <c r="Q12" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -1118,6 +1156,9 @@
       <c r="P13" t="n">
         <v>0</v>
       </c>
+      <c r="Q13" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -1168,6 +1209,9 @@
       <c r="P14" t="n">
         <v>0</v>
       </c>
+      <c r="Q14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -1218,6 +1262,9 @@
       <c r="P15" t="n">
         <v>0</v>
       </c>
+      <c r="Q15" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
@@ -1268,6 +1315,9 @@
       <c r="P16" t="n">
         <v>0</v>
       </c>
+      <c r="Q16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
@@ -1318,6 +1368,9 @@
       <c r="P17" t="n">
         <v>0</v>
       </c>
+      <c r="Q17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
@@ -1368,6 +1421,9 @@
       <c r="P18" t="n">
         <v>0</v>
       </c>
+      <c r="Q18" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
@@ -1418,6 +1474,9 @@
       <c r="P19" t="n">
         <v>0</v>
       </c>
+      <c r="Q19" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
@@ -1468,6 +1527,9 @@
       <c r="P20" t="n">
         <v>0</v>
       </c>
+      <c r="Q20" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
@@ -1518,6 +1580,9 @@
       <c r="P21" t="n">
         <v>0</v>
       </c>
+      <c r="Q21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
@@ -1568,6 +1633,9 @@
       <c r="P22" t="n">
         <v>0</v>
       </c>
+      <c r="Q22" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
@@ -1618,6 +1686,9 @@
       <c r="P23" t="n">
         <v>0</v>
       </c>
+      <c r="Q23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
@@ -1668,6 +1739,9 @@
       <c r="P24" t="n">
         <v>0</v>
       </c>
+      <c r="Q24" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
@@ -1718,6 +1792,9 @@
       <c r="P25" t="n">
         <v>0</v>
       </c>
+      <c r="Q25" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
@@ -1768,6 +1845,9 @@
       <c r="P26" t="n">
         <v>0</v>
       </c>
+      <c r="Q26" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
@@ -1818,6 +1898,9 @@
       <c r="P27" t="n">
         <v>0</v>
       </c>
+      <c r="Q27" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
@@ -1868,6 +1951,9 @@
       <c r="P28" t="n">
         <v>0</v>
       </c>
+      <c r="Q28" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
@@ -1918,6 +2004,9 @@
       <c r="P29" t="n">
         <v>0</v>
       </c>
+      <c r="Q29" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
@@ -1968,6 +2057,9 @@
       <c r="P30" t="n">
         <v>0</v>
       </c>
+      <c r="Q30" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
@@ -2018,6 +2110,9 @@
       <c r="P31" t="n">
         <v>0</v>
       </c>
+      <c r="Q31" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
@@ -2068,6 +2163,9 @@
       <c r="P32" t="n">
         <v>0</v>
       </c>
+      <c r="Q32" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
@@ -2118,6 +2216,9 @@
       <c r="P33" t="n">
         <v>0</v>
       </c>
+      <c r="Q33" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
@@ -2168,6 +2269,9 @@
       <c r="P34" t="n">
         <v>0</v>
       </c>
+      <c r="Q34" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
@@ -2218,6 +2322,9 @@
       <c r="P35" t="n">
         <v>0</v>
       </c>
+      <c r="Q35" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
@@ -2268,6 +2375,9 @@
       <c r="P36" t="n">
         <v>0</v>
       </c>
+      <c r="Q36" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
@@ -2318,6 +2428,9 @@
       <c r="P37" t="n">
         <v>0</v>
       </c>
+      <c r="Q37" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
@@ -2368,6 +2481,9 @@
       <c r="P38" t="n">
         <v>0</v>
       </c>
+      <c r="Q38" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
@@ -2418,6 +2534,9 @@
       <c r="P39" t="n">
         <v>0</v>
       </c>
+      <c r="Q39" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
@@ -2468,6 +2587,9 @@
       <c r="P40" t="n">
         <v>0</v>
       </c>
+      <c r="Q40" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
@@ -2518,6 +2640,9 @@
       <c r="P41" t="n">
         <v>0</v>
       </c>
+      <c r="Q41" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
@@ -2568,6 +2693,9 @@
       <c r="P42" t="n">
         <v>0</v>
       </c>
+      <c r="Q42" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
@@ -2618,6 +2746,9 @@
       <c r="P43" t="n">
         <v>0</v>
       </c>
+      <c r="Q43" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
@@ -2668,6 +2799,9 @@
       <c r="P44" t="n">
         <v>0</v>
       </c>
+      <c r="Q44" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
@@ -2718,6 +2852,9 @@
       <c r="P45" t="n">
         <v>0</v>
       </c>
+      <c r="Q45" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
@@ -2768,6 +2905,9 @@
       <c r="P46" t="n">
         <v>0</v>
       </c>
+      <c r="Q46" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
@@ -2818,6 +2958,9 @@
       <c r="P47" t="n">
         <v>0</v>
       </c>
+      <c r="Q47" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
@@ -2868,6 +3011,9 @@
       <c r="P48" t="n">
         <v>0</v>
       </c>
+      <c r="Q48" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
@@ -2918,6 +3064,9 @@
       <c r="P49" t="n">
         <v>0</v>
       </c>
+      <c r="Q49" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
@@ -2968,6 +3117,9 @@
       <c r="P50" t="n">
         <v>2</v>
       </c>
+      <c r="Q50" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
@@ -3018,6 +3170,9 @@
       <c r="P51" t="n">
         <v>0</v>
       </c>
+      <c r="Q51" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
@@ -3068,6 +3223,9 @@
       <c r="P52" t="n">
         <v>0</v>
       </c>
+      <c r="Q52" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
@@ -3118,6 +3276,9 @@
       <c r="P53" t="n">
         <v>0</v>
       </c>
+      <c r="Q53" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
@@ -3168,6 +3329,9 @@
       <c r="P54" t="n">
         <v>0</v>
       </c>
+      <c r="Q54" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
@@ -3218,6 +3382,9 @@
       <c r="P55" t="n">
         <v>0</v>
       </c>
+      <c r="Q55" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
@@ -3268,6 +3435,9 @@
       <c r="P56" t="n">
         <v>0</v>
       </c>
+      <c r="Q56" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
@@ -3318,6 +3488,9 @@
       <c r="P57" t="n">
         <v>0</v>
       </c>
+      <c r="Q57" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
@@ -3368,6 +3541,9 @@
       <c r="P58" t="n">
         <v>0</v>
       </c>
+      <c r="Q58" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
@@ -3418,6 +3594,9 @@
       <c r="P59" t="n">
         <v>0</v>
       </c>
+      <c r="Q59" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
@@ -3468,6 +3647,9 @@
       <c r="P60" t="n">
         <v>0</v>
       </c>
+      <c r="Q60" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
@@ -3518,6 +3700,9 @@
       <c r="P61" t="n">
         <v>0</v>
       </c>
+      <c r="Q61" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
@@ -3568,6 +3753,9 @@
       <c r="P62" t="n">
         <v>0</v>
       </c>
+      <c r="Q62" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
@@ -3618,6 +3806,9 @@
       <c r="P63" t="n">
         <v>0</v>
       </c>
+      <c r="Q63" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
@@ -3668,6 +3859,9 @@
       <c r="P64" t="n">
         <v>0</v>
       </c>
+      <c r="Q64" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
@@ -3718,6 +3912,9 @@
       <c r="P65" t="n">
         <v>0</v>
       </c>
+      <c r="Q65" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
@@ -3768,6 +3965,9 @@
       <c r="P66" t="n">
         <v>0</v>
       </c>
+      <c r="Q66" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
@@ -3818,6 +4018,9 @@
       <c r="P67" t="n">
         <v>0</v>
       </c>
+      <c r="Q67" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
@@ -3868,6 +4071,9 @@
       <c r="P68" t="n">
         <v>0</v>
       </c>
+      <c r="Q68" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
@@ -3918,6 +4124,9 @@
       <c r="P69" t="n">
         <v>0</v>
       </c>
+      <c r="Q69" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
@@ -3968,6 +4177,9 @@
       <c r="P70" t="n">
         <v>0</v>
       </c>
+      <c r="Q70" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
@@ -4018,6 +4230,9 @@
       <c r="P71" t="n">
         <v>0</v>
       </c>
+      <c r="Q71" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
@@ -4068,6 +4283,9 @@
       <c r="P72" t="n">
         <v>0</v>
       </c>
+      <c r="Q72" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
@@ -4118,6 +4336,9 @@
       <c r="P73" t="n">
         <v>0</v>
       </c>
+      <c r="Q73" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
@@ -4168,6 +4389,9 @@
       <c r="P74" t="n">
         <v>0</v>
       </c>
+      <c r="Q74" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
@@ -4218,6 +4442,9 @@
       <c r="P75" t="n">
         <v>0</v>
       </c>
+      <c r="Q75" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
@@ -4268,6 +4495,9 @@
       <c r="P76" t="n">
         <v>0</v>
       </c>
+      <c r="Q76" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
@@ -4318,6 +4548,9 @@
       <c r="P77" t="n">
         <v>0</v>
       </c>
+      <c r="Q77" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
@@ -4368,6 +4601,9 @@
       <c r="P78" t="n">
         <v>0</v>
       </c>
+      <c r="Q78" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
@@ -4418,6 +4654,9 @@
       <c r="P79" t="n">
         <v>0</v>
       </c>
+      <c r="Q79" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
@@ -4468,6 +4707,9 @@
       <c r="P80" t="n">
         <v>0</v>
       </c>
+      <c r="Q80" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
@@ -4518,6 +4760,9 @@
       <c r="P81" t="n">
         <v>0</v>
       </c>
+      <c r="Q81" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
@@ -4568,6 +4813,9 @@
       <c r="P82" t="n">
         <v>0</v>
       </c>
+      <c r="Q82" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
@@ -4618,6 +4866,9 @@
       <c r="P83" t="n">
         <v>0</v>
       </c>
+      <c r="Q83" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
@@ -4668,6 +4919,9 @@
       <c r="P84" t="n">
         <v>0</v>
       </c>
+      <c r="Q84" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
@@ -4718,6 +4972,9 @@
       <c r="P85" t="n">
         <v>0</v>
       </c>
+      <c r="Q85" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="n">
@@ -4768,6 +5025,9 @@
       <c r="P86" t="n">
         <v>0</v>
       </c>
+      <c r="Q86" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="n">
@@ -4818,6 +5078,9 @@
       <c r="P87" t="n">
         <v>0</v>
       </c>
+      <c r="Q87" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="n">
@@ -4868,6 +5131,9 @@
       <c r="P88" t="n">
         <v>0</v>
       </c>
+      <c r="Q88" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
@@ -4918,6 +5184,9 @@
       <c r="P89" t="n">
         <v>0</v>
       </c>
+      <c r="Q89" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
@@ -4968,6 +5237,9 @@
       <c r="P90" t="n">
         <v>0</v>
       </c>
+      <c r="Q90" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="n">
@@ -5018,6 +5290,9 @@
       <c r="P91" t="n">
         <v>0</v>
       </c>
+      <c r="Q91" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="n">
@@ -5068,6 +5343,9 @@
       <c r="P92" t="n">
         <v>0</v>
       </c>
+      <c r="Q92" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="n">
@@ -5118,6 +5396,9 @@
       <c r="P93" t="n">
         <v>0</v>
       </c>
+      <c r="Q93" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="n">
@@ -5168,6 +5449,9 @@
       <c r="P94" t="n">
         <v>0</v>
       </c>
+      <c r="Q94" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="n">
@@ -5218,6 +5502,9 @@
       <c r="P95" t="n">
         <v>0</v>
       </c>
+      <c r="Q95" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="n">
@@ -5268,6 +5555,9 @@
       <c r="P96" t="n">
         <v>0</v>
       </c>
+      <c r="Q96" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="n">
@@ -5318,6 +5608,9 @@
       <c r="P97" t="n">
         <v>0</v>
       </c>
+      <c r="Q97" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="n">
@@ -5368,6 +5661,9 @@
       <c r="P98" t="n">
         <v>0</v>
       </c>
+      <c r="Q98" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="n">
@@ -5418,6 +5714,9 @@
       <c r="P99" t="n">
         <v>0</v>
       </c>
+      <c r="Q99" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="n">
@@ -5468,6 +5767,9 @@
       <c r="P100" t="n">
         <v>0</v>
       </c>
+      <c r="Q100" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="n">
@@ -5518,6 +5820,9 @@
       <c r="P101" t="n">
         <v>0</v>
       </c>
+      <c r="Q101" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="n">
@@ -5568,6 +5873,9 @@
       <c r="P102" t="n">
         <v>0</v>
       </c>
+      <c r="Q102" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="n">
@@ -5618,6 +5926,9 @@
       <c r="P103" t="n">
         <v>0</v>
       </c>
+      <c r="Q103" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="n">
@@ -5668,6 +5979,9 @@
       <c r="P104" t="n">
         <v>0</v>
       </c>
+      <c r="Q104" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="n">
@@ -5718,6 +6032,60 @@
       <c r="P105" t="n">
         <v>0</v>
       </c>
+      <c r="Q105" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>45444</v>
+      </c>
+      <c r="B106" t="n">
+        <v>560</v>
+      </c>
+      <c r="C106" t="n">
+        <v>560</v>
+      </c>
+      <c r="D106" t="n">
+        <v>560</v>
+      </c>
+      <c r="E106" t="n">
+        <v>560</v>
+      </c>
+      <c r="F106" t="n">
+        <v>560</v>
+      </c>
+      <c r="G106" t="n">
+        <v>0</v>
+      </c>
+      <c r="H106" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I106" t="n">
+        <v>6</v>
+      </c>
+      <c r="J106" t="n">
+        <v>1</v>
+      </c>
+      <c r="K106" t="n">
+        <v>0</v>
+      </c>
+      <c r="L106" t="n">
+        <v>0</v>
+      </c>
+      <c r="M106" t="n">
+        <v>0</v>
+      </c>
+      <c r="N106" t="n">
+        <v>22</v>
+      </c>
+      <c r="O106" t="n">
+        <v>0</v>
+      </c>
+      <c r="P106" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q106" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1mo/GUJGASLTD.NS.xlsx
+++ b/stock_historical_data/1mo/GUJGASLTD.NS.xlsx
@@ -6085,7 +6085,9 @@
       <c r="P106" t="n">
         <v>0</v>
       </c>
-      <c r="Q106" t="inlineStr"/>
+      <c r="Q106" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1mo/GUJGASLTD.NS.xlsx
+++ b/stock_historical_data/1mo/GUJGASLTD.NS.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q106"/>
+  <dimension ref="A1:Q116"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -526,31 +526,29 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>42278</v>
+        <v>42248</v>
       </c>
       <c r="B2" t="n">
-        <v>106</v>
+        <v>127.9004959841963</v>
       </c>
       <c r="C2" t="n">
-        <v>112.8000030517578</v>
+        <v>127.9004959841963</v>
       </c>
       <c r="D2" t="n">
-        <v>90.63999938964844</v>
+        <v>92.56798425556305</v>
       </c>
       <c r="E2" t="n">
-        <v>111.0400009155273</v>
-      </c>
-      <c r="F2" t="n">
-        <v>105.3207244873047</v>
-      </c>
+        <v>97.54293823242188</v>
+      </c>
+      <c r="F2" t="inlineStr"/>
       <c r="G2" t="n">
-        <v>17565595</v>
+        <v>2452500</v>
       </c>
       <c r="H2" t="n">
         <v>2015</v>
       </c>
       <c r="I2" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J2" t="n">
         <v>1</v>
@@ -565,45 +563,39 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>40</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="O2" t="inlineStr"/>
+      <c r="P2" t="inlineStr"/>
+      <c r="Q2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>42309</v>
+        <v>42278</v>
       </c>
       <c r="B3" t="n">
-        <v>110.8199996948242</v>
+        <v>106</v>
       </c>
       <c r="C3" t="n">
-        <v>116.4000015258789</v>
+        <v>112.8000030517578</v>
       </c>
       <c r="D3" t="n">
-        <v>94.79000091552734</v>
+        <v>90.63999938964844</v>
       </c>
       <c r="E3" t="n">
-        <v>115.0100021362305</v>
+        <v>111.0400009155273</v>
       </c>
       <c r="F3" t="n">
-        <v>109.0862426757812</v>
+        <v>105.3207244873047</v>
       </c>
       <c r="G3" t="n">
-        <v>10119595</v>
+        <v>17565595</v>
       </c>
       <c r="H3" t="n">
         <v>2015</v>
       </c>
       <c r="I3" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J3" t="n">
         <v>1</v>
@@ -618,7 +610,7 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -632,31 +624,31 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>42339</v>
+        <v>42309</v>
       </c>
       <c r="B4" t="n">
-        <v>116.0500030517578</v>
+        <v>110.8199996948242</v>
       </c>
       <c r="C4" t="n">
-        <v>128.8800048828125</v>
+        <v>116.4000015258789</v>
       </c>
       <c r="D4" t="n">
-        <v>106.620002746582</v>
+        <v>94.79000091552734</v>
       </c>
       <c r="E4" t="n">
-        <v>124.9300003051758</v>
+        <v>115.0100021362305</v>
       </c>
       <c r="F4" t="n">
-        <v>118.4952926635742</v>
+        <v>109.0862426757812</v>
       </c>
       <c r="G4" t="n">
-        <v>10804925</v>
+        <v>10119595</v>
       </c>
       <c r="H4" t="n">
         <v>2015</v>
       </c>
       <c r="I4" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J4" t="n">
         <v>1</v>
@@ -671,7 +663,7 @@
         <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -685,31 +677,31 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>42370</v>
+        <v>42339</v>
       </c>
       <c r="B5" t="n">
-        <v>125.7600021362305</v>
+        <v>116.0500030517578</v>
       </c>
       <c r="C5" t="n">
-        <v>135.3999938964844</v>
+        <v>128.8800048828125</v>
       </c>
       <c r="D5" t="n">
-        <v>105.1999969482422</v>
+        <v>106.620002746582</v>
       </c>
       <c r="E5" t="n">
-        <v>114.4599990844727</v>
+        <v>124.9300003051758</v>
       </c>
       <c r="F5" t="n">
-        <v>109.4758834838867</v>
+        <v>118.4952926635742</v>
       </c>
       <c r="G5" t="n">
-        <v>9564740</v>
+        <v>10804925</v>
       </c>
       <c r="H5" t="n">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="I5" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="J5" t="n">
         <v>1</v>
@@ -724,10 +716,10 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="O5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
@@ -738,31 +730,31 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>42401</v>
+        <v>42370</v>
       </c>
       <c r="B6" t="n">
-        <v>114.9700012207031</v>
+        <v>125.7600021362305</v>
       </c>
       <c r="C6" t="n">
-        <v>115.1999969482422</v>
+        <v>135.3999938964844</v>
       </c>
       <c r="D6" t="n">
-        <v>95.59999847412109</v>
+        <v>105.1999969482422</v>
       </c>
       <c r="E6" t="n">
-        <v>96.23000335693359</v>
+        <v>114.4599990844727</v>
       </c>
       <c r="F6" t="n">
-        <v>92.03970336914062</v>
+        <v>109.4758834838867</v>
       </c>
       <c r="G6" t="n">
-        <v>4839910</v>
+        <v>9564740</v>
       </c>
       <c r="H6" t="n">
         <v>2016</v>
       </c>
       <c r="I6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J6" t="n">
         <v>1</v>
@@ -777,10 +769,10 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>5</v>
+        <v>53</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
@@ -791,31 +783,31 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>42430</v>
+        <v>42401</v>
       </c>
       <c r="B7" t="n">
+        <v>114.9700012207031</v>
+      </c>
+      <c r="C7" t="n">
+        <v>115.1999969482422</v>
+      </c>
+      <c r="D7" t="n">
+        <v>95.59999847412109</v>
+      </c>
+      <c r="E7" t="n">
         <v>96.23000335693359</v>
       </c>
-      <c r="C7" t="n">
-        <v>113.8000030517578</v>
-      </c>
-      <c r="D7" t="n">
-        <v>96.23000335693359</v>
-      </c>
-      <c r="E7" t="n">
-        <v>110.5100021362305</v>
-      </c>
       <c r="F7" t="n">
-        <v>105.6978912353516</v>
+        <v>92.03970336914062</v>
       </c>
       <c r="G7" t="n">
-        <v>6943530</v>
+        <v>4839910</v>
       </c>
       <c r="H7" t="n">
         <v>2016</v>
       </c>
       <c r="I7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J7" t="n">
         <v>1</v>
@@ -830,7 +822,7 @@
         <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="O7" t="n">
         <v>0</v>
@@ -844,31 +836,31 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>42461</v>
+        <v>42430</v>
       </c>
       <c r="B8" t="n">
-        <v>109.3899993896484</v>
+        <v>96.23000335693359</v>
       </c>
       <c r="C8" t="n">
-        <v>112</v>
+        <v>113.8000030517578</v>
       </c>
       <c r="D8" t="n">
-        <v>104.4000015258789</v>
+        <v>96.23000335693359</v>
       </c>
       <c r="E8" t="n">
-        <v>107.1600036621094</v>
+        <v>110.5100021362305</v>
       </c>
       <c r="F8" t="n">
-        <v>102.493766784668</v>
+        <v>105.6978912353516</v>
       </c>
       <c r="G8" t="n">
-        <v>2114980</v>
+        <v>6943530</v>
       </c>
       <c r="H8" t="n">
         <v>2016</v>
       </c>
       <c r="I8" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J8" t="n">
         <v>1</v>
@@ -883,7 +875,7 @@
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="O8" t="n">
         <v>0</v>
@@ -897,31 +889,31 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>42491</v>
+        <v>42461</v>
       </c>
       <c r="B9" t="n">
-        <v>107</v>
+        <v>109.3899993896484</v>
       </c>
       <c r="C9" t="n">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D9" t="n">
-        <v>98.01000213623047</v>
+        <v>104.4000015258789</v>
       </c>
       <c r="E9" t="n">
-        <v>104.25</v>
+        <v>107.1600036621094</v>
       </c>
       <c r="F9" t="n">
-        <v>99.71047210693359</v>
+        <v>102.493766784668</v>
       </c>
       <c r="G9" t="n">
-        <v>3656225</v>
+        <v>2114980</v>
       </c>
       <c r="H9" t="n">
         <v>2016</v>
       </c>
       <c r="I9" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J9" t="n">
         <v>1</v>
@@ -936,7 +928,7 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -950,31 +942,31 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>42522</v>
+        <v>42491</v>
       </c>
       <c r="B10" t="n">
-        <v>104.2699966430664</v>
+        <v>107</v>
       </c>
       <c r="C10" t="n">
-        <v>114.9100036621094</v>
+        <v>110</v>
       </c>
       <c r="D10" t="n">
-        <v>99.72000122070312</v>
+        <v>98.01000213623047</v>
       </c>
       <c r="E10" t="n">
-        <v>111.5299987792969</v>
+        <v>104.25</v>
       </c>
       <c r="F10" t="n">
-        <v>106.6734619140625</v>
+        <v>99.71047210693359</v>
       </c>
       <c r="G10" t="n">
-        <v>11108515</v>
+        <v>3656225</v>
       </c>
       <c r="H10" t="n">
         <v>2016</v>
       </c>
       <c r="I10" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J10" t="n">
         <v>1</v>
@@ -989,7 +981,7 @@
         <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="O10" t="n">
         <v>0</v>
@@ -1003,31 +995,31 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>42552</v>
+        <v>42522</v>
       </c>
       <c r="B11" t="n">
-        <v>112.9700012207031</v>
+        <v>104.2699966430664</v>
       </c>
       <c r="C11" t="n">
-        <v>119.7399978637695</v>
+        <v>114.9100036621094</v>
       </c>
       <c r="D11" t="n">
-        <v>106.5999984741211</v>
+        <v>99.72000122070312</v>
       </c>
       <c r="E11" t="n">
-        <v>118.3600006103516</v>
+        <v>111.5299987792969</v>
       </c>
       <c r="F11" t="n">
-        <v>113.2060623168945</v>
+        <v>106.6734619140625</v>
       </c>
       <c r="G11" t="n">
-        <v>4163950</v>
+        <v>11108515</v>
       </c>
       <c r="H11" t="n">
         <v>2016</v>
       </c>
       <c r="I11" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J11" t="n">
         <v>1</v>
@@ -1042,7 +1034,7 @@
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="O11" t="n">
         <v>0</v>
@@ -1056,31 +1048,31 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>42583</v>
+        <v>42552</v>
       </c>
       <c r="B12" t="n">
-        <v>115.4400024414062</v>
+        <v>112.9700012207031</v>
       </c>
       <c r="C12" t="n">
-        <v>138</v>
+        <v>119.7399978637695</v>
       </c>
       <c r="D12" t="n">
-        <v>115.4400024414062</v>
+        <v>106.5999984741211</v>
       </c>
       <c r="E12" t="n">
-        <v>127.5699996948242</v>
+        <v>118.3600006103516</v>
       </c>
       <c r="F12" t="n">
-        <v>122.0150146484375</v>
+        <v>113.2060623168945</v>
       </c>
       <c r="G12" t="n">
-        <v>6011260</v>
+        <v>4163950</v>
       </c>
       <c r="H12" t="n">
         <v>2016</v>
       </c>
       <c r="I12" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J12" t="n">
         <v>1</v>
@@ -1095,10 +1087,10 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="O12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -1109,31 +1101,31 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>42614</v>
+        <v>42583</v>
       </c>
       <c r="B13" t="n">
-        <v>127.4000015258789</v>
+        <v>115.4400024414062</v>
       </c>
       <c r="C13" t="n">
-        <v>129.7400054931641</v>
+        <v>138</v>
       </c>
       <c r="D13" t="n">
-        <v>113.7200012207031</v>
+        <v>115.4400024414062</v>
       </c>
       <c r="E13" t="n">
-        <v>114.870002746582</v>
+        <v>127.5699996948242</v>
       </c>
       <c r="F13" t="n">
-        <v>109.8680267333984</v>
+        <v>122.0150146484375</v>
       </c>
       <c r="G13" t="n">
-        <v>6111690</v>
+        <v>6011260</v>
       </c>
       <c r="H13" t="n">
         <v>2016</v>
       </c>
       <c r="I13" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J13" t="n">
         <v>1</v>
@@ -1148,10 +1140,10 @@
         <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P13" t="n">
         <v>0</v>
@@ -1162,31 +1154,31 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>42644</v>
+        <v>42614</v>
       </c>
       <c r="B14" t="n">
-        <v>119</v>
+        <v>127.4000015258789</v>
       </c>
       <c r="C14" t="n">
-        <v>124.1999969482422</v>
+        <v>129.7400054931641</v>
       </c>
       <c r="D14" t="n">
-        <v>112.4400024414062</v>
+        <v>113.7200012207031</v>
       </c>
       <c r="E14" t="n">
-        <v>114.5999984741211</v>
+        <v>114.870002746582</v>
       </c>
       <c r="F14" t="n">
-        <v>110.0523681640625</v>
+        <v>109.8680267333984</v>
       </c>
       <c r="G14" t="n">
-        <v>15830410</v>
+        <v>6111690</v>
       </c>
       <c r="H14" t="n">
         <v>2016</v>
       </c>
       <c r="I14" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J14" t="n">
         <v>1</v>
@@ -1201,7 +1193,7 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
@@ -1215,31 +1207,31 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>42675</v>
+        <v>42644</v>
       </c>
       <c r="B15" t="n">
-        <v>116.5999984741211</v>
+        <v>119</v>
       </c>
       <c r="C15" t="n">
-        <v>116.5999984741211</v>
+        <v>124.1999969482422</v>
       </c>
       <c r="D15" t="n">
-        <v>94</v>
+        <v>112.4400024414062</v>
       </c>
       <c r="E15" t="n">
-        <v>109.2699966430664</v>
+        <v>114.5999984741211</v>
       </c>
       <c r="F15" t="n">
-        <v>104.9338836669922</v>
+        <v>110.0523681640625</v>
       </c>
       <c r="G15" t="n">
-        <v>6477380</v>
+        <v>15830410</v>
       </c>
       <c r="H15" t="n">
         <v>2016</v>
       </c>
       <c r="I15" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J15" t="n">
         <v>1</v>
@@ -1254,10 +1246,10 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="O15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -1268,31 +1260,31 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>42705</v>
+        <v>42675</v>
       </c>
       <c r="B16" t="n">
-        <v>109.1999969482422</v>
+        <v>116.5999984741211</v>
       </c>
       <c r="C16" t="n">
-        <v>112.0299987792969</v>
+        <v>116.5999984741211</v>
       </c>
       <c r="D16" t="n">
-        <v>100.5999984741211</v>
+        <v>94</v>
       </c>
       <c r="E16" t="n">
-        <v>104.6100006103516</v>
+        <v>109.2699966430664</v>
       </c>
       <c r="F16" t="n">
-        <v>100.4588012695312</v>
+        <v>104.9338836669922</v>
       </c>
       <c r="G16" t="n">
-        <v>2815740</v>
+        <v>6477380</v>
       </c>
       <c r="H16" t="n">
         <v>2016</v>
       </c>
       <c r="I16" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J16" t="n">
         <v>1</v>
@@ -1307,45 +1299,45 @@
         <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P16" t="n">
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>42736</v>
+        <v>42705</v>
       </c>
       <c r="B17" t="n">
-        <v>104.9899978637695</v>
+        <v>109.1999969482422</v>
       </c>
       <c r="C17" t="n">
-        <v>117.2699966430664</v>
+        <v>112.0299987792969</v>
       </c>
       <c r="D17" t="n">
-        <v>104.8000030517578</v>
+        <v>100.5999984741211</v>
       </c>
       <c r="E17" t="n">
-        <v>114.1600036621094</v>
+        <v>104.6100006103516</v>
       </c>
       <c r="F17" t="n">
-        <v>109.6298294067383</v>
+        <v>100.4588012695312</v>
       </c>
       <c r="G17" t="n">
-        <v>7989135</v>
+        <v>2815740</v>
       </c>
       <c r="H17" t="n">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="I17" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="J17" t="n">
         <v>1</v>
@@ -1360,7 +1352,7 @@
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="O17" t="n">
         <v>0</v>
@@ -1369,36 +1361,36 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>42767</v>
+        <v>42736</v>
       </c>
       <c r="B18" t="n">
-        <v>112.4400024414062</v>
+        <v>104.9899978637695</v>
       </c>
       <c r="C18" t="n">
-        <v>127.5599975585938</v>
+        <v>117.2699966430664</v>
       </c>
       <c r="D18" t="n">
-        <v>112.4400024414062</v>
+        <v>104.8000030517578</v>
       </c>
       <c r="E18" t="n">
-        <v>124.9700012207031</v>
+        <v>114.1600036621094</v>
       </c>
       <c r="F18" t="n">
-        <v>120.010856628418</v>
+        <v>109.6298294067383</v>
       </c>
       <c r="G18" t="n">
-        <v>8057080</v>
+        <v>7989135</v>
       </c>
       <c r="H18" t="n">
         <v>2017</v>
       </c>
       <c r="I18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J18" t="n">
         <v>1</v>
@@ -1413,7 +1405,7 @@
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>5</v>
+        <v>52</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -1427,31 +1419,31 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>42795</v>
+        <v>42767</v>
       </c>
       <c r="B19" t="n">
-        <v>125.7900009155273</v>
+        <v>112.4400024414062</v>
       </c>
       <c r="C19" t="n">
-        <v>164</v>
+        <v>127.5599975585938</v>
       </c>
       <c r="D19" t="n">
-        <v>125.3199996948242</v>
+        <v>112.4400024414062</v>
       </c>
       <c r="E19" t="n">
-        <v>153.75</v>
+        <v>124.9700012207031</v>
       </c>
       <c r="F19" t="n">
-        <v>147.6488037109375</v>
+        <v>120.010856628418</v>
       </c>
       <c r="G19" t="n">
-        <v>16999765</v>
+        <v>8057080</v>
       </c>
       <c r="H19" t="n">
         <v>2017</v>
       </c>
       <c r="I19" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J19" t="n">
         <v>1</v>
@@ -1466,7 +1458,7 @@
         <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="O19" t="n">
         <v>0</v>
@@ -1480,31 +1472,31 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>42826</v>
+        <v>42795</v>
       </c>
       <c r="B20" t="n">
-        <v>154.6799926757812</v>
+        <v>125.7900009155273</v>
       </c>
       <c r="C20" t="n">
-        <v>176.1999969482422</v>
+        <v>164</v>
       </c>
       <c r="D20" t="n">
-        <v>150.4600067138672</v>
+        <v>125.3199996948242</v>
       </c>
       <c r="E20" t="n">
-        <v>168.9299926757812</v>
+        <v>153.75</v>
       </c>
       <c r="F20" t="n">
-        <v>162.2264099121094</v>
+        <v>147.6488037109375</v>
       </c>
       <c r="G20" t="n">
-        <v>14699580</v>
+        <v>16999765</v>
       </c>
       <c r="H20" t="n">
         <v>2017</v>
       </c>
       <c r="I20" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J20" t="n">
         <v>1</v>
@@ -1519,7 +1511,7 @@
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="O20" t="n">
         <v>0</v>
@@ -1533,31 +1525,31 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>42856</v>
+        <v>42826</v>
       </c>
       <c r="B21" t="n">
+        <v>154.6799926757812</v>
+      </c>
+      <c r="C21" t="n">
+        <v>176.1999969482422</v>
+      </c>
+      <c r="D21" t="n">
+        <v>150.4600067138672</v>
+      </c>
+      <c r="E21" t="n">
         <v>168.9299926757812</v>
       </c>
-      <c r="C21" t="n">
-        <v>174.0399932861328</v>
-      </c>
-      <c r="D21" t="n">
-        <v>144.8000030517578</v>
-      </c>
-      <c r="E21" t="n">
-        <v>152.3000030517578</v>
-      </c>
       <c r="F21" t="n">
-        <v>146.2563323974609</v>
+        <v>162.2264099121094</v>
       </c>
       <c r="G21" t="n">
-        <v>8590775</v>
+        <v>14699580</v>
       </c>
       <c r="H21" t="n">
         <v>2017</v>
       </c>
       <c r="I21" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J21" t="n">
         <v>1</v>
@@ -1572,7 +1564,7 @@
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
@@ -1586,31 +1578,31 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>42887</v>
+        <v>42856</v>
       </c>
       <c r="B22" t="n">
-        <v>153.4799957275391</v>
+        <v>168.9299926757812</v>
       </c>
       <c r="C22" t="n">
-        <v>163.0099945068359</v>
+        <v>174.0399932861328</v>
       </c>
       <c r="D22" t="n">
-        <v>146.0299987792969</v>
+        <v>144.8000030517578</v>
       </c>
       <c r="E22" t="n">
-        <v>148.6100006103516</v>
+        <v>152.3000030517578</v>
       </c>
       <c r="F22" t="n">
-        <v>142.7127532958984</v>
+        <v>146.2563323974609</v>
       </c>
       <c r="G22" t="n">
-        <v>8620865</v>
+        <v>8590775</v>
       </c>
       <c r="H22" t="n">
         <v>2017</v>
       </c>
       <c r="I22" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J22" t="n">
         <v>1</v>
@@ -1625,7 +1617,7 @@
         <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="O22" t="n">
         <v>0</v>
@@ -1639,31 +1631,31 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>42917</v>
+        <v>42887</v>
       </c>
       <c r="B23" t="n">
-        <v>149.8399963378906</v>
+        <v>153.4799957275391</v>
       </c>
       <c r="C23" t="n">
-        <v>178.5200042724609</v>
+        <v>163.0099945068359</v>
       </c>
       <c r="D23" t="n">
-        <v>128.6000061035156</v>
+        <v>146.0299987792969</v>
       </c>
       <c r="E23" t="n">
-        <v>151.75</v>
+        <v>148.6100006103516</v>
       </c>
       <c r="F23" t="n">
-        <v>145.7281646728516</v>
+        <v>142.7127532958984</v>
       </c>
       <c r="G23" t="n">
-        <v>5415220</v>
+        <v>8620865</v>
       </c>
       <c r="H23" t="n">
         <v>2017</v>
       </c>
       <c r="I23" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J23" t="n">
         <v>1</v>
@@ -1678,10 +1670,10 @@
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="O23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -1692,31 +1684,31 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>42948</v>
+        <v>42917</v>
       </c>
       <c r="B24" t="n">
-        <v>153.7599945068359</v>
+        <v>149.8399963378906</v>
       </c>
       <c r="C24" t="n">
-        <v>162.8500061035156</v>
+        <v>178.5200042724609</v>
       </c>
       <c r="D24" t="n">
-        <v>142.1999969482422</v>
+        <v>128.6000061035156</v>
       </c>
       <c r="E24" t="n">
-        <v>155.8000030517578</v>
+        <v>151.75</v>
       </c>
       <c r="F24" t="n">
-        <v>149.617431640625</v>
+        <v>145.7281646728516</v>
       </c>
       <c r="G24" t="n">
-        <v>5775115</v>
+        <v>5415220</v>
       </c>
       <c r="H24" t="n">
         <v>2017</v>
       </c>
       <c r="I24" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J24" t="n">
         <v>1</v>
@@ -1731,10 +1723,10 @@
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -1745,31 +1737,31 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>42979</v>
+        <v>42948</v>
       </c>
       <c r="B25" t="n">
-        <v>154.9900054931641</v>
+        <v>153.7599945068359</v>
       </c>
       <c r="C25" t="n">
-        <v>178</v>
+        <v>162.8500061035156</v>
       </c>
       <c r="D25" t="n">
-        <v>154.9900054931641</v>
+        <v>142.1999969482422</v>
       </c>
       <c r="E25" t="n">
-        <v>167.5099945068359</v>
+        <v>155.8000030517578</v>
       </c>
       <c r="F25" t="n">
-        <v>160.8627471923828</v>
+        <v>149.617431640625</v>
       </c>
       <c r="G25" t="n">
-        <v>6069530</v>
+        <v>5775115</v>
       </c>
       <c r="H25" t="n">
         <v>2017</v>
       </c>
       <c r="I25" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J25" t="n">
         <v>1</v>
@@ -1784,7 +1776,7 @@
         <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="O25" t="n">
         <v>0</v>
@@ -1798,31 +1790,31 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>43009</v>
+        <v>42979</v>
       </c>
       <c r="B26" t="n">
+        <v>154.9900054931641</v>
+      </c>
+      <c r="C26" t="n">
+        <v>178</v>
+      </c>
+      <c r="D26" t="n">
+        <v>154.9900054931641</v>
+      </c>
+      <c r="E26" t="n">
         <v>167.5099945068359</v>
       </c>
-      <c r="C26" t="n">
-        <v>189</v>
-      </c>
-      <c r="D26" t="n">
-        <v>166.5700073242188</v>
-      </c>
-      <c r="E26" t="n">
-        <v>182.4900054931641</v>
-      </c>
       <c r="F26" t="n">
-        <v>175.8729095458984</v>
+        <v>160.8627471923828</v>
       </c>
       <c r="G26" t="n">
-        <v>6456205</v>
+        <v>6069530</v>
       </c>
       <c r="H26" t="n">
         <v>2017</v>
       </c>
       <c r="I26" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J26" t="n">
         <v>1</v>
@@ -1837,7 +1829,7 @@
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="O26" t="n">
         <v>0</v>
@@ -1851,31 +1843,31 @@
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>43040</v>
+        <v>43009</v>
       </c>
       <c r="B27" t="n">
-        <v>183.8000030517578</v>
+        <v>167.5099945068359</v>
       </c>
       <c r="C27" t="n">
-        <v>195.6000061035156</v>
+        <v>189</v>
       </c>
       <c r="D27" t="n">
-        <v>162.3600006103516</v>
+        <v>166.5700073242188</v>
       </c>
       <c r="E27" t="n">
-        <v>175.8200073242188</v>
+        <v>182.4900054931641</v>
       </c>
       <c r="F27" t="n">
-        <v>169.4447784423828</v>
+        <v>175.8729095458984</v>
       </c>
       <c r="G27" t="n">
-        <v>7348385</v>
+        <v>6456205</v>
       </c>
       <c r="H27" t="n">
         <v>2017</v>
       </c>
       <c r="I27" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J27" t="n">
         <v>1</v>
@@ -1890,45 +1882,45 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="O27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>43070</v>
+        <v>43040</v>
       </c>
       <c r="B28" t="n">
-        <v>176</v>
+        <v>183.8000030517578</v>
       </c>
       <c r="C28" t="n">
-        <v>176.8000030517578</v>
+        <v>195.6000061035156</v>
       </c>
       <c r="D28" t="n">
-        <v>163.3999938964844</v>
+        <v>162.3600006103516</v>
       </c>
       <c r="E28" t="n">
-        <v>168.1100006103516</v>
+        <v>175.8200073242188</v>
       </c>
       <c r="F28" t="n">
-        <v>162.0143127441406</v>
+        <v>169.4447784423828</v>
       </c>
       <c r="G28" t="n">
-        <v>5896855</v>
+        <v>7348385</v>
       </c>
       <c r="H28" t="n">
         <v>2017</v>
       </c>
       <c r="I28" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J28" t="n">
         <v>1</v>
@@ -1943,45 +1935,45 @@
         <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P28" t="n">
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>43101</v>
+        <v>43070</v>
       </c>
       <c r="B29" t="n">
-        <v>169.3899993896484</v>
+        <v>176</v>
       </c>
       <c r="C29" t="n">
-        <v>191</v>
+        <v>176.8000030517578</v>
       </c>
       <c r="D29" t="n">
-        <v>164.9299926757812</v>
+        <v>163.3999938964844</v>
       </c>
       <c r="E29" t="n">
-        <v>167.1499938964844</v>
+        <v>168.1100006103516</v>
       </c>
       <c r="F29" t="n">
-        <v>161.0891265869141</v>
+        <v>162.0143127441406</v>
       </c>
       <c r="G29" t="n">
-        <v>4667435</v>
+        <v>5896855</v>
       </c>
       <c r="H29" t="n">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="I29" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="J29" t="n">
         <v>1</v>
@@ -1996,7 +1988,7 @@
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>1</v>
+        <v>48</v>
       </c>
       <c r="O29" t="n">
         <v>0</v>
@@ -2010,31 +2002,31 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>43132</v>
+        <v>43101</v>
       </c>
       <c r="B30" t="n">
-        <v>171.8000030517578</v>
+        <v>169.3899993896484</v>
       </c>
       <c r="C30" t="n">
-        <v>180.8000030517578</v>
+        <v>191</v>
       </c>
       <c r="D30" t="n">
-        <v>158.8000030517578</v>
+        <v>164.9299926757812</v>
       </c>
       <c r="E30" t="n">
-        <v>174</v>
+        <v>167.1499938964844</v>
       </c>
       <c r="F30" t="n">
-        <v>167.6907501220703</v>
+        <v>161.0891265869141</v>
       </c>
       <c r="G30" t="n">
-        <v>2679420</v>
+        <v>4667435</v>
       </c>
       <c r="H30" t="n">
         <v>2018</v>
       </c>
       <c r="I30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J30" t="n">
         <v>1</v>
@@ -2049,10 +2041,10 @@
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="O30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -2063,31 +2055,31 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>43160</v>
+        <v>43132</v>
       </c>
       <c r="B31" t="n">
-        <v>173.8000030517578</v>
+        <v>171.8000030517578</v>
       </c>
       <c r="C31" t="n">
-        <v>176.6000061035156</v>
+        <v>180.8000030517578</v>
       </c>
       <c r="D31" t="n">
-        <v>161.6100006103516</v>
+        <v>158.8000030517578</v>
       </c>
       <c r="E31" t="n">
-        <v>166.6399993896484</v>
+        <v>174</v>
       </c>
       <c r="F31" t="n">
-        <v>160.5976257324219</v>
+        <v>167.6907501220703</v>
       </c>
       <c r="G31" t="n">
-        <v>5061945</v>
+        <v>2679420</v>
       </c>
       <c r="H31" t="n">
         <v>2018</v>
       </c>
       <c r="I31" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J31" t="n">
         <v>1</v>
@@ -2102,45 +2094,45 @@
         <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P31" t="n">
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>43191</v>
+        <v>43160</v>
       </c>
       <c r="B32" t="n">
-        <v>168.3899993896484</v>
+        <v>173.8000030517578</v>
       </c>
       <c r="C32" t="n">
-        <v>180</v>
+        <v>176.6000061035156</v>
       </c>
       <c r="D32" t="n">
-        <v>165.6600036621094</v>
+        <v>161.6100006103516</v>
       </c>
       <c r="E32" t="n">
-        <v>176.8200073242188</v>
+        <v>166.6399993896484</v>
       </c>
       <c r="F32" t="n">
-        <v>170.4085083007812</v>
+        <v>160.5976257324219</v>
       </c>
       <c r="G32" t="n">
-        <v>1883480</v>
+        <v>5061945</v>
       </c>
       <c r="H32" t="n">
         <v>2018</v>
       </c>
       <c r="I32" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J32" t="n">
         <v>1</v>
@@ -2155,7 +2147,7 @@
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="O32" t="n">
         <v>0</v>
@@ -2164,36 +2156,36 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>43221</v>
+        <v>43191</v>
       </c>
       <c r="B33" t="n">
+        <v>168.3899993896484</v>
+      </c>
+      <c r="C33" t="n">
+        <v>180</v>
+      </c>
+      <c r="D33" t="n">
+        <v>165.6600036621094</v>
+      </c>
+      <c r="E33" t="n">
         <v>176.8200073242188</v>
       </c>
-      <c r="C33" t="n">
-        <v>182.9499969482422</v>
-      </c>
-      <c r="D33" t="n">
-        <v>166.3200073242188</v>
-      </c>
-      <c r="E33" t="n">
-        <v>173.2100067138672</v>
-      </c>
       <c r="F33" t="n">
-        <v>166.9293823242188</v>
+        <v>170.4085083007812</v>
       </c>
       <c r="G33" t="n">
-        <v>2636930</v>
+        <v>1883480</v>
       </c>
       <c r="H33" t="n">
         <v>2018</v>
       </c>
       <c r="I33" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J33" t="n">
         <v>1</v>
@@ -2208,10 +2200,10 @@
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="O33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -2222,31 +2214,31 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>43252</v>
+        <v>43221</v>
       </c>
       <c r="B34" t="n">
-        <v>173.7200012207031</v>
+        <v>176.8200073242188</v>
       </c>
       <c r="C34" t="n">
-        <v>175</v>
+        <v>182.9499969482422</v>
       </c>
       <c r="D34" t="n">
-        <v>142.3399963378906</v>
+        <v>166.3200073242188</v>
       </c>
       <c r="E34" t="n">
-        <v>145.8200073242188</v>
+        <v>173.2100067138672</v>
       </c>
       <c r="F34" t="n">
-        <v>140.5325775146484</v>
+        <v>166.9293823242188</v>
       </c>
       <c r="G34" t="n">
-        <v>9281240</v>
+        <v>2636930</v>
       </c>
       <c r="H34" t="n">
         <v>2018</v>
       </c>
       <c r="I34" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J34" t="n">
         <v>1</v>
@@ -2261,45 +2253,45 @@
         <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P34" t="n">
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>43282</v>
+        <v>43252</v>
       </c>
       <c r="B35" t="n">
-        <v>145.1799926757812</v>
+        <v>173.7200012207031</v>
       </c>
       <c r="C35" t="n">
-        <v>165.2700042724609</v>
+        <v>175</v>
       </c>
       <c r="D35" t="n">
-        <v>143.0099945068359</v>
+        <v>142.3399963378906</v>
       </c>
       <c r="E35" t="n">
-        <v>157.6399993896484</v>
+        <v>145.8200073242188</v>
       </c>
       <c r="F35" t="n">
-        <v>151.9239807128906</v>
+        <v>140.5325775146484</v>
       </c>
       <c r="G35" t="n">
-        <v>3695630</v>
+        <v>9281240</v>
       </c>
       <c r="H35" t="n">
         <v>2018</v>
       </c>
       <c r="I35" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J35" t="n">
         <v>1</v>
@@ -2314,7 +2306,7 @@
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="O35" t="n">
         <v>0</v>
@@ -2323,36 +2315,36 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>43313</v>
+        <v>43282</v>
       </c>
       <c r="B36" t="n">
-        <v>160</v>
+        <v>145.1799926757812</v>
       </c>
       <c r="C36" t="n">
-        <v>160.5899963378906</v>
+        <v>165.2700042724609</v>
       </c>
       <c r="D36" t="n">
-        <v>148.1999969482422</v>
+        <v>143.0099945068359</v>
       </c>
       <c r="E36" t="n">
-        <v>154.8899993896484</v>
+        <v>157.6399993896484</v>
       </c>
       <c r="F36" t="n">
-        <v>149.273681640625</v>
+        <v>151.9239807128906</v>
       </c>
       <c r="G36" t="n">
-        <v>4410585</v>
+        <v>3695630</v>
       </c>
       <c r="H36" t="n">
         <v>2018</v>
       </c>
       <c r="I36" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J36" t="n">
         <v>1</v>
@@ -2367,7 +2359,7 @@
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -2381,31 +2373,31 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>43344</v>
+        <v>43313</v>
       </c>
       <c r="B37" t="n">
-        <v>156.9799957275391</v>
+        <v>160</v>
       </c>
       <c r="C37" t="n">
-        <v>156.9799957275391</v>
+        <v>160.5899963378906</v>
       </c>
       <c r="D37" t="n">
-        <v>125</v>
+        <v>148.1999969482422</v>
       </c>
       <c r="E37" t="n">
-        <v>125.8600006103516</v>
+        <v>154.8899993896484</v>
       </c>
       <c r="F37" t="n">
-        <v>121.2963180541992</v>
+        <v>149.273681640625</v>
       </c>
       <c r="G37" t="n">
-        <v>4556060</v>
+        <v>4410585</v>
       </c>
       <c r="H37" t="n">
         <v>2018</v>
       </c>
       <c r="I37" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J37" t="n">
         <v>1</v>
@@ -2420,7 +2412,7 @@
         <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="O37" t="n">
         <v>0</v>
@@ -2429,36 +2421,36 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>43374</v>
+        <v>43344</v>
       </c>
       <c r="B38" t="n">
-        <v>127.9100036621094</v>
+        <v>156.9799957275391</v>
       </c>
       <c r="C38" t="n">
-        <v>144.9900054931641</v>
+        <v>156.9799957275391</v>
       </c>
       <c r="D38" t="n">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="E38" t="n">
-        <v>125.5400009155273</v>
+        <v>125.8600006103516</v>
       </c>
       <c r="F38" t="n">
-        <v>121.6617050170898</v>
+        <v>121.2963180541992</v>
       </c>
       <c r="G38" t="n">
-        <v>4248245</v>
+        <v>4556060</v>
       </c>
       <c r="H38" t="n">
         <v>2018</v>
       </c>
       <c r="I38" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J38" t="n">
         <v>1</v>
@@ -2473,7 +2465,7 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="O38" t="n">
         <v>0</v>
@@ -2482,36 +2474,36 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>43405</v>
+        <v>43374</v>
       </c>
       <c r="B39" t="n">
+        <v>127.9100036621094</v>
+      </c>
+      <c r="C39" t="n">
+        <v>144.9900054931641</v>
+      </c>
+      <c r="D39" t="n">
+        <v>119</v>
+      </c>
+      <c r="E39" t="n">
         <v>125.5400009155273</v>
       </c>
-      <c r="C39" t="n">
-        <v>131.9100036621094</v>
-      </c>
-      <c r="D39" t="n">
-        <v>118.7200012207031</v>
-      </c>
-      <c r="E39" t="n">
-        <v>128.5800018310547</v>
-      </c>
       <c r="F39" t="n">
-        <v>124.607795715332</v>
+        <v>121.6617050170898</v>
       </c>
       <c r="G39" t="n">
-        <v>7325560</v>
+        <v>4248245</v>
       </c>
       <c r="H39" t="n">
         <v>2018</v>
       </c>
       <c r="I39" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J39" t="n">
         <v>1</v>
@@ -2526,7 +2518,7 @@
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -2540,31 +2532,31 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>43435</v>
+        <v>43405</v>
       </c>
       <c r="B40" t="n">
-        <v>128.1499938964844</v>
+        <v>125.5400009155273</v>
       </c>
       <c r="C40" t="n">
-        <v>139.8000030517578</v>
+        <v>131.9100036621094</v>
       </c>
       <c r="D40" t="n">
-        <v>123.6100006103516</v>
+        <v>118.7200012207031</v>
       </c>
       <c r="E40" t="n">
-        <v>134.0099945068359</v>
+        <v>128.5800018310547</v>
       </c>
       <c r="F40" t="n">
-        <v>129.8700408935547</v>
+        <v>124.607795715332</v>
       </c>
       <c r="G40" t="n">
-        <v>2257500</v>
+        <v>7325560</v>
       </c>
       <c r="H40" t="n">
         <v>2018</v>
       </c>
       <c r="I40" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J40" t="n">
         <v>1</v>
@@ -2579,7 +2571,7 @@
         <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="O40" t="n">
         <v>0</v>
@@ -2593,31 +2585,31 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>43466</v>
+        <v>43435</v>
       </c>
       <c r="B41" t="n">
-        <v>135</v>
+        <v>128.1499938964844</v>
       </c>
       <c r="C41" t="n">
-        <v>158</v>
+        <v>139.8000030517578</v>
       </c>
       <c r="D41" t="n">
-        <v>122.75</v>
+        <v>123.6100006103516</v>
       </c>
       <c r="E41" t="n">
-        <v>127.5500030517578</v>
+        <v>134.0099945068359</v>
       </c>
       <c r="F41" t="n">
-        <v>123.609619140625</v>
+        <v>129.8700408935547</v>
       </c>
       <c r="G41" t="n">
-        <v>6506026</v>
+        <v>2257500</v>
       </c>
       <c r="H41" t="n">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="I41" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="J41" t="n">
         <v>1</v>
@@ -2632,7 +2624,7 @@
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>1</v>
+        <v>48</v>
       </c>
       <c r="O41" t="n">
         <v>0</v>
@@ -2646,31 +2638,31 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>43497</v>
+        <v>43466</v>
       </c>
       <c r="B42" t="n">
-        <v>129.0500030517578</v>
+        <v>135</v>
       </c>
       <c r="C42" t="n">
-        <v>133</v>
+        <v>158</v>
       </c>
       <c r="D42" t="n">
-        <v>115</v>
+        <v>122.75</v>
       </c>
       <c r="E42" t="n">
-        <v>119.0500030517578</v>
+        <v>127.5500030517578</v>
       </c>
       <c r="F42" t="n">
-        <v>115.3722076416016</v>
+        <v>123.609619140625</v>
       </c>
       <c r="G42" t="n">
-        <v>9038637</v>
+        <v>6506026</v>
       </c>
       <c r="H42" t="n">
         <v>2019</v>
       </c>
       <c r="I42" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J42" t="n">
         <v>1</v>
@@ -2685,10 +2677,10 @@
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="O42" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -2699,31 +2691,31 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>43525</v>
+        <v>43497</v>
       </c>
       <c r="B43" t="n">
-        <v>120.5</v>
+        <v>129.0500030517578</v>
       </c>
       <c r="C43" t="n">
-        <v>156.9499969482422</v>
+        <v>133</v>
       </c>
       <c r="D43" t="n">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="E43" t="n">
-        <v>148.1000061035156</v>
+        <v>119.0500030517578</v>
       </c>
       <c r="F43" t="n">
-        <v>143.5247497558594</v>
+        <v>115.3722076416016</v>
       </c>
       <c r="G43" t="n">
-        <v>23021222</v>
+        <v>9038637</v>
       </c>
       <c r="H43" t="n">
         <v>2019</v>
       </c>
       <c r="I43" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J43" t="n">
         <v>1</v>
@@ -2738,10 +2730,10 @@
         <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P43" t="n">
         <v>0</v>
@@ -2752,31 +2744,31 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>43556</v>
+        <v>43525</v>
       </c>
       <c r="B44" t="n">
-        <v>149.8000030517578</v>
+        <v>120.5</v>
       </c>
       <c r="C44" t="n">
-        <v>167.3999938964844</v>
+        <v>156.9499969482422</v>
       </c>
       <c r="D44" t="n">
-        <v>144.4499969482422</v>
+        <v>120</v>
       </c>
       <c r="E44" t="n">
-        <v>159.1000061035156</v>
+        <v>148.1000061035156</v>
       </c>
       <c r="F44" t="n">
-        <v>154.1849517822266</v>
+        <v>143.5247497558594</v>
       </c>
       <c r="G44" t="n">
-        <v>13839702</v>
+        <v>23021222</v>
       </c>
       <c r="H44" t="n">
         <v>2019</v>
       </c>
       <c r="I44" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J44" t="n">
         <v>1</v>
@@ -2791,7 +2783,7 @@
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="O44" t="n">
         <v>0</v>
@@ -2805,31 +2797,31 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>43586</v>
+        <v>43556</v>
       </c>
       <c r="B45" t="n">
+        <v>149.8000030517578</v>
+      </c>
+      <c r="C45" t="n">
+        <v>167.3999938964844</v>
+      </c>
+      <c r="D45" t="n">
+        <v>144.4499969482422</v>
+      </c>
+      <c r="E45" t="n">
         <v>159.1000061035156</v>
       </c>
-      <c r="C45" t="n">
-        <v>192</v>
-      </c>
-      <c r="D45" t="n">
-        <v>154.6000061035156</v>
-      </c>
-      <c r="E45" t="n">
-        <v>183.8999938964844</v>
-      </c>
       <c r="F45" t="n">
-        <v>178.2187805175781</v>
+        <v>154.1849517822266</v>
       </c>
       <c r="G45" t="n">
-        <v>11341941</v>
+        <v>13839702</v>
       </c>
       <c r="H45" t="n">
         <v>2019</v>
       </c>
       <c r="I45" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J45" t="n">
         <v>1</v>
@@ -2844,7 +2836,7 @@
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
@@ -2858,31 +2850,31 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>43617</v>
+        <v>43586</v>
       </c>
       <c r="B46" t="n">
-        <v>185.5</v>
+        <v>159.1000061035156</v>
       </c>
       <c r="C46" t="n">
-        <v>194.4499969482422</v>
+        <v>192</v>
       </c>
       <c r="D46" t="n">
-        <v>165</v>
+        <v>154.6000061035156</v>
       </c>
       <c r="E46" t="n">
-        <v>172.3500061035156</v>
+        <v>183.8999938964844</v>
       </c>
       <c r="F46" t="n">
-        <v>167.0256042480469</v>
+        <v>178.2187805175781</v>
       </c>
       <c r="G46" t="n">
-        <v>8027906</v>
+        <v>11341941</v>
       </c>
       <c r="H46" t="n">
         <v>2019</v>
       </c>
       <c r="I46" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J46" t="n">
         <v>1</v>
@@ -2897,30 +2889,30 @@
         <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="O46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P46" t="n">
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>43647</v>
+        <v>43617</v>
       </c>
       <c r="B47" t="n">
-        <v>173.1000061035156</v>
+        <v>185.5</v>
       </c>
       <c r="C47" t="n">
-        <v>182.9499969482422</v>
+        <v>194.4499969482422</v>
       </c>
       <c r="D47" t="n">
-        <v>154.5</v>
+        <v>165</v>
       </c>
       <c r="E47" t="n">
         <v>172.3500061035156</v>
@@ -2929,13 +2921,13 @@
         <v>167.0256042480469</v>
       </c>
       <c r="G47" t="n">
-        <v>10201917</v>
+        <v>8027906</v>
       </c>
       <c r="H47" t="n">
         <v>2019</v>
       </c>
       <c r="I47" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J47" t="n">
         <v>1</v>
@@ -2950,45 +2942,45 @@
         <v>0</v>
       </c>
       <c r="N47" t="n">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="O47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P47" t="n">
         <v>0</v>
       </c>
       <c r="Q47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>43678</v>
+        <v>43647</v>
       </c>
       <c r="B48" t="n">
-        <v>171.8000030517578</v>
+        <v>173.1000061035156</v>
       </c>
       <c r="C48" t="n">
-        <v>191.6000061035156</v>
+        <v>182.9499969482422</v>
       </c>
       <c r="D48" t="n">
-        <v>168.25</v>
+        <v>154.5</v>
       </c>
       <c r="E48" t="n">
-        <v>178.1499938964844</v>
+        <v>172.3500061035156</v>
       </c>
       <c r="F48" t="n">
-        <v>172.6464233398438</v>
+        <v>167.0256042480469</v>
       </c>
       <c r="G48" t="n">
-        <v>8025910</v>
+        <v>10201917</v>
       </c>
       <c r="H48" t="n">
         <v>2019</v>
       </c>
       <c r="I48" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J48" t="n">
         <v>1</v>
@@ -3003,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="N48" t="n">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="O48" t="n">
         <v>0</v>
@@ -3017,31 +3009,31 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>43709</v>
+        <v>43678</v>
       </c>
       <c r="B49" t="n">
+        <v>171.8000030517578</v>
+      </c>
+      <c r="C49" t="n">
+        <v>191.6000061035156</v>
+      </c>
+      <c r="D49" t="n">
+        <v>168.25</v>
+      </c>
+      <c r="E49" t="n">
         <v>178.1499938964844</v>
       </c>
-      <c r="C49" t="n">
-        <v>185</v>
-      </c>
-      <c r="D49" t="n">
-        <v>165</v>
-      </c>
-      <c r="E49" t="n">
-        <v>177.3000030517578</v>
-      </c>
       <c r="F49" t="n">
-        <v>171.8227081298828</v>
+        <v>172.6464233398438</v>
       </c>
       <c r="G49" t="n">
-        <v>6538556</v>
+        <v>8025910</v>
       </c>
       <c r="H49" t="n">
         <v>2019</v>
       </c>
       <c r="I49" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J49" t="n">
         <v>1</v>
@@ -3056,7 +3048,7 @@
         <v>0</v>
       </c>
       <c r="N49" t="n">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="O49" t="n">
         <v>0</v>
@@ -3070,31 +3062,31 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>43739</v>
+        <v>43709</v>
       </c>
       <c r="B50" t="n">
-        <v>176.5500030517578</v>
+        <v>178.1499938964844</v>
       </c>
       <c r="C50" t="n">
-        <v>207</v>
+        <v>185</v>
       </c>
       <c r="D50" t="n">
-        <v>167.6000061035156</v>
+        <v>165</v>
       </c>
       <c r="E50" t="n">
-        <v>196.1499938964844</v>
+        <v>177.3000030517578</v>
       </c>
       <c r="F50" t="n">
-        <v>191.1707153320312</v>
+        <v>171.8227081298828</v>
       </c>
       <c r="G50" t="n">
-        <v>12712131</v>
+        <v>6538556</v>
       </c>
       <c r="H50" t="n">
         <v>2019</v>
       </c>
       <c r="I50" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J50" t="n">
         <v>1</v>
@@ -3109,45 +3101,45 @@
         <v>0</v>
       </c>
       <c r="N50" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="O50" t="n">
         <v>0</v>
       </c>
       <c r="P50" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q50" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>43770</v>
+        <v>43739</v>
       </c>
       <c r="B51" t="n">
-        <v>197.75</v>
+        <v>176.5500030517578</v>
       </c>
       <c r="C51" t="n">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="D51" t="n">
-        <v>189</v>
+        <v>167.6000061035156</v>
       </c>
       <c r="E51" t="n">
-        <v>212.6000061035156</v>
+        <v>196.1499938964844</v>
       </c>
       <c r="F51" t="n">
-        <v>207.2031402587891</v>
+        <v>191.1707153320312</v>
       </c>
       <c r="G51" t="n">
-        <v>19689169</v>
+        <v>12712131</v>
       </c>
       <c r="H51" t="n">
         <v>2019</v>
       </c>
       <c r="I51" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J51" t="n">
         <v>1</v>
@@ -3162,45 +3154,45 @@
         <v>0</v>
       </c>
       <c r="N51" t="n">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="O51" t="n">
         <v>0</v>
       </c>
       <c r="P51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>43800</v>
+        <v>43770</v>
       </c>
       <c r="B52" t="n">
-        <v>213.1999969482422</v>
+        <v>197.75</v>
       </c>
       <c r="C52" t="n">
-        <v>239</v>
+        <v>215</v>
       </c>
       <c r="D52" t="n">
-        <v>210</v>
+        <v>189</v>
       </c>
       <c r="E52" t="n">
-        <v>237.5500030517578</v>
+        <v>212.6000061035156</v>
       </c>
       <c r="F52" t="n">
-        <v>231.519775390625</v>
+        <v>207.2031402587891</v>
       </c>
       <c r="G52" t="n">
-        <v>20533133</v>
+        <v>19689169</v>
       </c>
       <c r="H52" t="n">
         <v>2019</v>
       </c>
       <c r="I52" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J52" t="n">
         <v>1</v>
@@ -3215,7 +3207,7 @@
         <v>0</v>
       </c>
       <c r="N52" t="n">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="O52" t="n">
         <v>0</v>
@@ -3229,31 +3221,31 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>43831</v>
+        <v>43800</v>
       </c>
       <c r="B53" t="n">
+        <v>213.1999969482422</v>
+      </c>
+      <c r="C53" t="n">
         <v>239</v>
       </c>
-      <c r="C53" t="n">
-        <v>307.9500122070312</v>
-      </c>
       <c r="D53" t="n">
-        <v>237.8500061035156</v>
+        <v>210</v>
       </c>
       <c r="E53" t="n">
-        <v>288.2999877929688</v>
+        <v>237.5500030517578</v>
       </c>
       <c r="F53" t="n">
-        <v>280.9814453125</v>
+        <v>231.519775390625</v>
       </c>
       <c r="G53" t="n">
-        <v>37341001</v>
+        <v>20533133</v>
       </c>
       <c r="H53" t="n">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="I53" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="J53" t="n">
         <v>1</v>
@@ -3268,7 +3260,7 @@
         <v>0</v>
       </c>
       <c r="N53" t="n">
-        <v>1</v>
+        <v>48</v>
       </c>
       <c r="O53" t="n">
         <v>0</v>
@@ -3282,31 +3274,31 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>43862</v>
+        <v>43831</v>
       </c>
       <c r="B54" t="n">
-        <v>289.7999877929688</v>
+        <v>239</v>
       </c>
       <c r="C54" t="n">
-        <v>313.7999877929688</v>
+        <v>307.9500122070312</v>
       </c>
       <c r="D54" t="n">
-        <v>266.6499938964844</v>
+        <v>237.8500061035156</v>
       </c>
       <c r="E54" t="n">
-        <v>276.1000061035156</v>
+        <v>288.2999877929688</v>
       </c>
       <c r="F54" t="n">
-        <v>269.0911865234375</v>
+        <v>280.9814453125</v>
       </c>
       <c r="G54" t="n">
-        <v>20321091</v>
+        <v>37341001</v>
       </c>
       <c r="H54" t="n">
         <v>2020</v>
       </c>
       <c r="I54" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J54" t="n">
         <v>1</v>
@@ -3321,10 +3313,10 @@
         <v>0</v>
       </c>
       <c r="N54" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="O54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P54" t="n">
         <v>0</v>
@@ -3335,31 +3327,31 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
-        <v>43891</v>
+        <v>43862</v>
       </c>
       <c r="B55" t="n">
+        <v>289.7999877929688</v>
+      </c>
+      <c r="C55" t="n">
+        <v>313.7999877929688</v>
+      </c>
+      <c r="D55" t="n">
+        <v>266.6499938964844</v>
+      </c>
+      <c r="E55" t="n">
         <v>276.1000061035156</v>
       </c>
-      <c r="C55" t="n">
-        <v>299.2000122070312</v>
-      </c>
-      <c r="D55" t="n">
-        <v>190.5</v>
-      </c>
-      <c r="E55" t="n">
-        <v>230.8500061035156</v>
-      </c>
       <c r="F55" t="n">
-        <v>224.9898681640625</v>
+        <v>269.0911865234375</v>
       </c>
       <c r="G55" t="n">
-        <v>24537604</v>
+        <v>20321091</v>
       </c>
       <c r="H55" t="n">
         <v>2020</v>
       </c>
       <c r="I55" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J55" t="n">
         <v>1</v>
@@ -3374,10 +3366,10 @@
         <v>0</v>
       </c>
       <c r="N55" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="O55" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P55" t="n">
         <v>0</v>
@@ -3388,31 +3380,31 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
-        <v>43922</v>
+        <v>43891</v>
       </c>
       <c r="B56" t="n">
-        <v>234</v>
+        <v>276.1000061035156</v>
       </c>
       <c r="C56" t="n">
-        <v>274.8999938964844</v>
+        <v>299.2000122070312</v>
       </c>
       <c r="D56" t="n">
-        <v>219.1000061035156</v>
+        <v>190.5</v>
       </c>
       <c r="E56" t="n">
-        <v>259</v>
+        <v>230.8500061035156</v>
       </c>
       <c r="F56" t="n">
-        <v>252.4252471923828</v>
+        <v>224.9898681640625</v>
       </c>
       <c r="G56" t="n">
-        <v>16041042</v>
+        <v>24537604</v>
       </c>
       <c r="H56" t="n">
         <v>2020</v>
       </c>
       <c r="I56" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J56" t="n">
         <v>1</v>
@@ -3427,10 +3419,10 @@
         <v>0</v>
       </c>
       <c r="N56" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="O56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P56" t="n">
         <v>0</v>
@@ -3441,31 +3433,31 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
-        <v>43952</v>
+        <v>43922</v>
       </c>
       <c r="B57" t="n">
+        <v>234</v>
+      </c>
+      <c r="C57" t="n">
+        <v>274.8999938964844</v>
+      </c>
+      <c r="D57" t="n">
+        <v>219.1000061035156</v>
+      </c>
+      <c r="E57" t="n">
         <v>259</v>
       </c>
-      <c r="C57" t="n">
-        <v>259</v>
-      </c>
-      <c r="D57" t="n">
-        <v>228</v>
-      </c>
-      <c r="E57" t="n">
-        <v>240.5500030517578</v>
-      </c>
       <c r="F57" t="n">
-        <v>234.4436187744141</v>
+        <v>252.4252471923828</v>
       </c>
       <c r="G57" t="n">
-        <v>9431565</v>
+        <v>16041042</v>
       </c>
       <c r="H57" t="n">
         <v>2020</v>
       </c>
       <c r="I57" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J57" t="n">
         <v>1</v>
@@ -3480,7 +3472,7 @@
         <v>0</v>
       </c>
       <c r="N57" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="O57" t="n">
         <v>0</v>
@@ -3494,31 +3486,31 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
-        <v>43983</v>
+        <v>43952</v>
       </c>
       <c r="B58" t="n">
-        <v>244.8000030517578</v>
+        <v>259</v>
       </c>
       <c r="C58" t="n">
-        <v>324.3999938964844</v>
+        <v>259</v>
       </c>
       <c r="D58" t="n">
-        <v>244</v>
+        <v>228</v>
       </c>
       <c r="E58" t="n">
-        <v>318.25</v>
+        <v>240.5500030517578</v>
       </c>
       <c r="F58" t="n">
-        <v>310.1712036132812</v>
+        <v>234.4436187744141</v>
       </c>
       <c r="G58" t="n">
-        <v>29384280</v>
+        <v>9431565</v>
       </c>
       <c r="H58" t="n">
         <v>2020</v>
       </c>
       <c r="I58" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J58" t="n">
         <v>1</v>
@@ -3533,7 +3525,7 @@
         <v>0</v>
       </c>
       <c r="N58" t="n">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="O58" t="n">
         <v>0</v>
@@ -3542,36 +3534,36 @@
         <v>0</v>
       </c>
       <c r="Q58" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
-        <v>44013</v>
+        <v>43983</v>
       </c>
       <c r="B59" t="n">
-        <v>321.25</v>
+        <v>244.8000030517578</v>
       </c>
       <c r="C59" t="n">
-        <v>328.7999877929688</v>
+        <v>324.3999938964844</v>
       </c>
       <c r="D59" t="n">
-        <v>281.5</v>
+        <v>244</v>
       </c>
       <c r="E59" t="n">
-        <v>289.25</v>
+        <v>318.25</v>
       </c>
       <c r="F59" t="n">
-        <v>281.9073791503906</v>
+        <v>310.1712036132812</v>
       </c>
       <c r="G59" t="n">
-        <v>20761944</v>
+        <v>29384280</v>
       </c>
       <c r="H59" t="n">
         <v>2020</v>
       </c>
       <c r="I59" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J59" t="n">
         <v>1</v>
@@ -3586,7 +3578,7 @@
         <v>0</v>
       </c>
       <c r="N59" t="n">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="O59" t="n">
         <v>0</v>
@@ -3595,36 +3587,36 @@
         <v>0</v>
       </c>
       <c r="Q59" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
-        <v>44044</v>
+        <v>44013</v>
       </c>
       <c r="B60" t="n">
-        <v>292</v>
+        <v>321.25</v>
       </c>
       <c r="C60" t="n">
-        <v>334.3999938964844</v>
+        <v>328.7999877929688</v>
       </c>
       <c r="D60" t="n">
-        <v>289.2999877929688</v>
+        <v>281.5</v>
       </c>
       <c r="E60" t="n">
-        <v>325.4500122070312</v>
+        <v>289.25</v>
       </c>
       <c r="F60" t="n">
-        <v>317.1884765625</v>
+        <v>281.9073791503906</v>
       </c>
       <c r="G60" t="n">
-        <v>22090070</v>
+        <v>20761944</v>
       </c>
       <c r="H60" t="n">
         <v>2020</v>
       </c>
       <c r="I60" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J60" t="n">
         <v>1</v>
@@ -3639,7 +3631,7 @@
         <v>0</v>
       </c>
       <c r="N60" t="n">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="O60" t="n">
         <v>0</v>
@@ -3648,36 +3640,36 @@
         <v>0</v>
       </c>
       <c r="Q60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
-        <v>44075</v>
+        <v>44044</v>
       </c>
       <c r="B61" t="n">
-        <v>326.1000061035156</v>
+        <v>292</v>
       </c>
       <c r="C61" t="n">
-        <v>328</v>
+        <v>334.3999938964844</v>
       </c>
       <c r="D61" t="n">
-        <v>285.2000122070312</v>
+        <v>289.2999877929688</v>
       </c>
       <c r="E61" t="n">
-        <v>308.3999938964844</v>
+        <v>325.4500122070312</v>
       </c>
       <c r="F61" t="n">
-        <v>300.5711975097656</v>
+        <v>317.1884765625</v>
       </c>
       <c r="G61" t="n">
-        <v>14001559</v>
+        <v>22090070</v>
       </c>
       <c r="H61" t="n">
         <v>2020</v>
       </c>
       <c r="I61" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J61" t="n">
         <v>1</v>
@@ -3692,7 +3684,7 @@
         <v>0</v>
       </c>
       <c r="N61" t="n">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="O61" t="n">
         <v>0</v>
@@ -3706,31 +3698,31 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
-        <v>44105</v>
+        <v>44075</v>
       </c>
       <c r="B62" t="n">
-        <v>314.9500122070312</v>
+        <v>326.1000061035156</v>
       </c>
       <c r="C62" t="n">
-        <v>316.7000122070312</v>
+        <v>328</v>
       </c>
       <c r="D62" t="n">
-        <v>281</v>
+        <v>285.2000122070312</v>
       </c>
       <c r="E62" t="n">
-        <v>296.6000061035156</v>
+        <v>308.3999938964844</v>
       </c>
       <c r="F62" t="n">
-        <v>290.3261108398438</v>
+        <v>300.5711975097656</v>
       </c>
       <c r="G62" t="n">
-        <v>11467799</v>
+        <v>14001559</v>
       </c>
       <c r="H62" t="n">
         <v>2020</v>
       </c>
       <c r="I62" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J62" t="n">
         <v>1</v>
@@ -3745,10 +3737,10 @@
         <v>0</v>
       </c>
       <c r="N62" t="n">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="O62" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P62" t="n">
         <v>0</v>
@@ -3759,31 +3751,31 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
-        <v>44136</v>
+        <v>44105</v>
       </c>
       <c r="B63" t="n">
-        <v>297</v>
+        <v>314.9500122070312</v>
       </c>
       <c r="C63" t="n">
-        <v>412.3999938964844</v>
+        <v>316.7000122070312</v>
       </c>
       <c r="D63" t="n">
-        <v>290.2999877929688</v>
+        <v>281</v>
       </c>
       <c r="E63" t="n">
-        <v>348.8500061035156</v>
+        <v>296.6000061035156</v>
       </c>
       <c r="F63" t="n">
-        <v>341.4708862304688</v>
+        <v>290.3261108398438</v>
       </c>
       <c r="G63" t="n">
-        <v>24089890</v>
+        <v>11467799</v>
       </c>
       <c r="H63" t="n">
         <v>2020</v>
       </c>
       <c r="I63" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J63" t="n">
         <v>1</v>
@@ -3798,10 +3790,10 @@
         <v>0</v>
       </c>
       <c r="N63" t="n">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="O63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P63" t="n">
         <v>0</v>
@@ -3812,31 +3804,31 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
-        <v>44166</v>
+        <v>44136</v>
       </c>
       <c r="B64" t="n">
-        <v>352.4500122070312</v>
+        <v>297</v>
       </c>
       <c r="C64" t="n">
-        <v>387.7000122070312</v>
+        <v>412.3999938964844</v>
       </c>
       <c r="D64" t="n">
-        <v>335</v>
+        <v>290.2999877929688</v>
       </c>
       <c r="E64" t="n">
-        <v>376.3999938964844</v>
+        <v>348.8500061035156</v>
       </c>
       <c r="F64" t="n">
-        <v>368.4381103515625</v>
+        <v>341.4708862304688</v>
       </c>
       <c r="G64" t="n">
-        <v>20868173</v>
+        <v>24089890</v>
       </c>
       <c r="H64" t="n">
         <v>2020</v>
       </c>
       <c r="I64" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J64" t="n">
         <v>1</v>
@@ -3851,7 +3843,7 @@
         <v>0</v>
       </c>
       <c r="N64" t="n">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="O64" t="n">
         <v>0</v>
@@ -3865,31 +3857,31 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
-        <v>44197</v>
+        <v>44166</v>
       </c>
       <c r="B65" t="n">
-        <v>378.7000122070312</v>
+        <v>352.4500122070312</v>
       </c>
       <c r="C65" t="n">
-        <v>396.9500122070312</v>
+        <v>387.7000122070312</v>
       </c>
       <c r="D65" t="n">
-        <v>342.0499877929688</v>
+        <v>335</v>
       </c>
       <c r="E65" t="n">
-        <v>370.25</v>
+        <v>376.3999938964844</v>
       </c>
       <c r="F65" t="n">
-        <v>362.4181823730469</v>
+        <v>368.4381103515625</v>
       </c>
       <c r="G65" t="n">
-        <v>14653672</v>
+        <v>20868173</v>
       </c>
       <c r="H65" t="n">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="I65" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="J65" t="n">
         <v>1</v>
@@ -3904,7 +3896,7 @@
         <v>0</v>
       </c>
       <c r="N65" t="n">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="O65" t="n">
         <v>0</v>
@@ -3918,31 +3910,31 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
-        <v>44228</v>
+        <v>44197</v>
       </c>
       <c r="B66" t="n">
-        <v>373.6000061035156</v>
+        <v>378.7000122070312</v>
       </c>
       <c r="C66" t="n">
-        <v>526.7999877929688</v>
+        <v>396.9500122070312</v>
       </c>
       <c r="D66" t="n">
-        <v>357</v>
+        <v>342.0499877929688</v>
       </c>
       <c r="E66" t="n">
-        <v>494.7000122070312</v>
+        <v>370.25</v>
       </c>
       <c r="F66" t="n">
-        <v>484.2357482910156</v>
+        <v>362.4181823730469</v>
       </c>
       <c r="G66" t="n">
-        <v>38987087</v>
+        <v>14653672</v>
       </c>
       <c r="H66" t="n">
         <v>2021</v>
       </c>
       <c r="I66" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J66" t="n">
         <v>1</v>
@@ -3957,7 +3949,7 @@
         <v>0</v>
       </c>
       <c r="N66" t="n">
-        <v>5</v>
+        <v>53</v>
       </c>
       <c r="O66" t="n">
         <v>0</v>
@@ -3966,36 +3958,36 @@
         <v>0</v>
       </c>
       <c r="Q66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
-        <v>44256</v>
+        <v>44228</v>
       </c>
       <c r="B67" t="n">
-        <v>502</v>
+        <v>373.6000061035156</v>
       </c>
       <c r="C67" t="n">
-        <v>566.7000122070312</v>
+        <v>526.7999877929688</v>
       </c>
       <c r="D67" t="n">
-        <v>495.7999877929688</v>
+        <v>357</v>
       </c>
       <c r="E67" t="n">
-        <v>549.4500122070312</v>
+        <v>494.7000122070312</v>
       </c>
       <c r="F67" t="n">
-        <v>537.82763671875</v>
+        <v>484.2357482910156</v>
       </c>
       <c r="G67" t="n">
-        <v>32249362</v>
+        <v>38987087</v>
       </c>
       <c r="H67" t="n">
         <v>2021</v>
       </c>
       <c r="I67" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J67" t="n">
         <v>1</v>
@@ -4010,7 +4002,7 @@
         <v>0</v>
       </c>
       <c r="N67" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="O67" t="n">
         <v>0</v>
@@ -4019,36 +4011,36 @@
         <v>0</v>
       </c>
       <c r="Q67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
-        <v>44287</v>
+        <v>44256</v>
       </c>
       <c r="B68" t="n">
-        <v>554.7000122070312</v>
+        <v>502</v>
       </c>
       <c r="C68" t="n">
-        <v>580.5</v>
+        <v>566.7000122070312</v>
       </c>
       <c r="D68" t="n">
-        <v>510.2999877929688</v>
+        <v>495.7999877929688</v>
       </c>
       <c r="E68" t="n">
-        <v>530.9500122070312</v>
+        <v>549.4500122070312</v>
       </c>
       <c r="F68" t="n">
-        <v>519.7189331054688</v>
+        <v>537.82763671875</v>
       </c>
       <c r="G68" t="n">
-        <v>21775687</v>
+        <v>32249362</v>
       </c>
       <c r="H68" t="n">
         <v>2021</v>
       </c>
       <c r="I68" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J68" t="n">
         <v>1</v>
@@ -4063,7 +4055,7 @@
         <v>0</v>
       </c>
       <c r="N68" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="O68" t="n">
         <v>0</v>
@@ -4077,31 +4069,31 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
-        <v>44317</v>
+        <v>44287</v>
       </c>
       <c r="B69" t="n">
-        <v>530</v>
+        <v>554.7000122070312</v>
       </c>
       <c r="C69" t="n">
-        <v>548.8499755859375</v>
+        <v>580.5</v>
       </c>
       <c r="D69" t="n">
-        <v>497</v>
+        <v>510.2999877929688</v>
       </c>
       <c r="E69" t="n">
-        <v>536.2999877929688</v>
+        <v>530.9500122070312</v>
       </c>
       <c r="F69" t="n">
-        <v>524.9557495117188</v>
+        <v>519.7189331054688</v>
       </c>
       <c r="G69" t="n">
-        <v>19086543</v>
+        <v>21775687</v>
       </c>
       <c r="H69" t="n">
         <v>2021</v>
       </c>
       <c r="I69" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J69" t="n">
         <v>1</v>
@@ -4116,7 +4108,7 @@
         <v>0</v>
       </c>
       <c r="N69" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="O69" t="n">
         <v>0</v>
@@ -4130,31 +4122,31 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
-        <v>44348</v>
+        <v>44317</v>
       </c>
       <c r="B70" t="n">
-        <v>541</v>
+        <v>530</v>
       </c>
       <c r="C70" t="n">
-        <v>704.5</v>
+        <v>548.8499755859375</v>
       </c>
       <c r="D70" t="n">
-        <v>535</v>
+        <v>497</v>
       </c>
       <c r="E70" t="n">
-        <v>660.75</v>
+        <v>536.2999877929688</v>
       </c>
       <c r="F70" t="n">
-        <v>646.7733154296875</v>
+        <v>524.9557495117188</v>
       </c>
       <c r="G70" t="n">
-        <v>81881162</v>
+        <v>19086543</v>
       </c>
       <c r="H70" t="n">
         <v>2021</v>
       </c>
       <c r="I70" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J70" t="n">
         <v>1</v>
@@ -4169,7 +4161,7 @@
         <v>0</v>
       </c>
       <c r="N70" t="n">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="O70" t="n">
         <v>0</v>
@@ -4183,31 +4175,31 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
-        <v>44378</v>
+        <v>44348</v>
       </c>
       <c r="B71" t="n">
-        <v>665</v>
+        <v>541</v>
       </c>
       <c r="C71" t="n">
-        <v>742.7999877929688</v>
+        <v>704.5</v>
       </c>
       <c r="D71" t="n">
-        <v>656</v>
+        <v>535</v>
       </c>
       <c r="E71" t="n">
-        <v>714.9500122070312</v>
+        <v>660.75</v>
       </c>
       <c r="F71" t="n">
-        <v>699.826904296875</v>
+        <v>646.7733154296875</v>
       </c>
       <c r="G71" t="n">
-        <v>32672798</v>
+        <v>81881162</v>
       </c>
       <c r="H71" t="n">
         <v>2021</v>
       </c>
       <c r="I71" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J71" t="n">
         <v>1</v>
@@ -4222,7 +4214,7 @@
         <v>0</v>
       </c>
       <c r="N71" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="O71" t="n">
         <v>0</v>
@@ -4236,31 +4228,31 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
-        <v>44409</v>
+        <v>44378</v>
       </c>
       <c r="B72" t="n">
-        <v>720</v>
+        <v>665</v>
       </c>
       <c r="C72" t="n">
-        <v>786</v>
+        <v>742.7999877929688</v>
       </c>
       <c r="D72" t="n">
-        <v>690</v>
+        <v>656</v>
       </c>
       <c r="E72" t="n">
-        <v>722.7999877929688</v>
+        <v>714.9500122070312</v>
       </c>
       <c r="F72" t="n">
-        <v>707.5108032226562</v>
+        <v>699.826904296875</v>
       </c>
       <c r="G72" t="n">
-        <v>41231569</v>
+        <v>32672798</v>
       </c>
       <c r="H72" t="n">
         <v>2021</v>
       </c>
       <c r="I72" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J72" t="n">
         <v>1</v>
@@ -4275,10 +4267,10 @@
         <v>0</v>
       </c>
       <c r="N72" t="n">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="O72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P72" t="n">
         <v>0</v>
@@ -4289,31 +4281,31 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
-        <v>44440</v>
+        <v>44409</v>
       </c>
       <c r="B73" t="n">
-        <v>725.9500122070312</v>
+        <v>720</v>
       </c>
       <c r="C73" t="n">
-        <v>729.2999877929688</v>
+        <v>786</v>
       </c>
       <c r="D73" t="n">
-        <v>607.2999877929688</v>
+        <v>690</v>
       </c>
       <c r="E73" t="n">
-        <v>637.4500122070312</v>
+        <v>722.7999877929688</v>
       </c>
       <c r="F73" t="n">
-        <v>623.9661865234375</v>
+        <v>707.5108032226562</v>
       </c>
       <c r="G73" t="n">
-        <v>36575489</v>
+        <v>41231569</v>
       </c>
       <c r="H73" t="n">
         <v>2021</v>
       </c>
       <c r="I73" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J73" t="n">
         <v>1</v>
@@ -4328,10 +4320,10 @@
         <v>0</v>
       </c>
       <c r="N73" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="O73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P73" t="n">
         <v>0</v>
@@ -4342,31 +4334,31 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
-        <v>44470</v>
+        <v>44440</v>
       </c>
       <c r="B74" t="n">
-        <v>640.5</v>
+        <v>725.9500122070312</v>
       </c>
       <c r="C74" t="n">
-        <v>671.9500122070312</v>
+        <v>729.2999877929688</v>
       </c>
       <c r="D74" t="n">
-        <v>577.2000122070312</v>
+        <v>607.2999877929688</v>
       </c>
       <c r="E74" t="n">
-        <v>622.2999877929688</v>
+        <v>637.4500122070312</v>
       </c>
       <c r="F74" t="n">
-        <v>610.8924560546875</v>
+        <v>623.9661865234375</v>
       </c>
       <c r="G74" t="n">
-        <v>41108779</v>
+        <v>36575489</v>
       </c>
       <c r="H74" t="n">
         <v>2021</v>
       </c>
       <c r="I74" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J74" t="n">
         <v>1</v>
@@ -4381,10 +4373,10 @@
         <v>0</v>
       </c>
       <c r="N74" t="n">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="O74" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P74" t="n">
         <v>0</v>
@@ -4395,31 +4387,31 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
-        <v>44501</v>
+        <v>44470</v>
       </c>
       <c r="B75" t="n">
-        <v>632.25</v>
+        <v>640.5</v>
       </c>
       <c r="C75" t="n">
-        <v>684</v>
+        <v>671.9500122070312</v>
       </c>
       <c r="D75" t="n">
-        <v>614.0499877929688</v>
+        <v>577.2000122070312</v>
       </c>
       <c r="E75" t="n">
-        <v>669.9500122070312</v>
+        <v>622.2999877929688</v>
       </c>
       <c r="F75" t="n">
-        <v>657.6690063476562</v>
+        <v>610.8924560546875</v>
       </c>
       <c r="G75" t="n">
-        <v>24669378</v>
+        <v>41108779</v>
       </c>
       <c r="H75" t="n">
         <v>2021</v>
       </c>
       <c r="I75" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J75" t="n">
         <v>1</v>
@@ -4434,10 +4426,10 @@
         <v>0</v>
       </c>
       <c r="N75" t="n">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="O75" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P75" t="n">
         <v>0</v>
@@ -4448,31 +4440,31 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
-        <v>44531</v>
+        <v>44501</v>
       </c>
       <c r="B76" t="n">
-        <v>674</v>
+        <v>632.25</v>
       </c>
       <c r="C76" t="n">
-        <v>696</v>
+        <v>684</v>
       </c>
       <c r="D76" t="n">
-        <v>592</v>
+        <v>614.0499877929688</v>
       </c>
       <c r="E76" t="n">
-        <v>634.8499755859375</v>
+        <v>669.9500122070312</v>
       </c>
       <c r="F76" t="n">
-        <v>623.21240234375</v>
+        <v>657.6690063476562</v>
       </c>
       <c r="G76" t="n">
-        <v>19426906</v>
+        <v>24669378</v>
       </c>
       <c r="H76" t="n">
         <v>2021</v>
       </c>
       <c r="I76" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J76" t="n">
         <v>1</v>
@@ -4487,7 +4479,7 @@
         <v>0</v>
       </c>
       <c r="N76" t="n">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="O76" t="n">
         <v>0</v>
@@ -4496,36 +4488,36 @@
         <v>0</v>
       </c>
       <c r="Q76" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
-        <v>44562</v>
+        <v>44531</v>
       </c>
       <c r="B77" t="n">
-        <v>637</v>
+        <v>674</v>
       </c>
       <c r="C77" t="n">
-        <v>721.7999877929688</v>
+        <v>696</v>
       </c>
       <c r="D77" t="n">
-        <v>635</v>
+        <v>592</v>
       </c>
       <c r="E77" t="n">
-        <v>672.6500244140625</v>
+        <v>634.8499755859375</v>
       </c>
       <c r="F77" t="n">
-        <v>660.3195190429688</v>
+        <v>623.21240234375</v>
       </c>
       <c r="G77" t="n">
-        <v>22118168</v>
+        <v>19426906</v>
       </c>
       <c r="H77" t="n">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="I77" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="J77" t="n">
         <v>1</v>
@@ -4540,45 +4532,45 @@
         <v>0</v>
       </c>
       <c r="N77" t="n">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="O77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P77" t="n">
         <v>0</v>
       </c>
       <c r="Q77" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
-        <v>44593</v>
+        <v>44562</v>
       </c>
       <c r="B78" t="n">
-        <v>674.25</v>
+        <v>637</v>
       </c>
       <c r="C78" t="n">
-        <v>702.2000122070312</v>
+        <v>721.7999877929688</v>
       </c>
       <c r="D78" t="n">
-        <v>565.25</v>
+        <v>635</v>
       </c>
       <c r="E78" t="n">
-        <v>583.5499877929688</v>
+        <v>672.6500244140625</v>
       </c>
       <c r="F78" t="n">
-        <v>572.8528442382812</v>
+        <v>660.3195190429688</v>
       </c>
       <c r="G78" t="n">
-        <v>23203342</v>
+        <v>22118168</v>
       </c>
       <c r="H78" t="n">
         <v>2022</v>
       </c>
       <c r="I78" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J78" t="n">
         <v>1</v>
@@ -4593,45 +4585,45 @@
         <v>0</v>
       </c>
       <c r="N78" t="n">
-        <v>5</v>
+        <v>52</v>
       </c>
       <c r="O78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P78" t="n">
         <v>0</v>
       </c>
       <c r="Q78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
-        <v>44621</v>
+        <v>44593</v>
       </c>
       <c r="B79" t="n">
+        <v>674.25</v>
+      </c>
+      <c r="C79" t="n">
+        <v>702.2000122070312</v>
+      </c>
+      <c r="D79" t="n">
+        <v>565.25</v>
+      </c>
+      <c r="E79" t="n">
         <v>583.5499877929688</v>
       </c>
-      <c r="C79" t="n">
-        <v>583.5499877929688</v>
-      </c>
-      <c r="D79" t="n">
-        <v>478.0499877929688</v>
-      </c>
-      <c r="E79" t="n">
-        <v>503.25</v>
-      </c>
       <c r="F79" t="n">
-        <v>494.0248107910156</v>
+        <v>572.8528442382812</v>
       </c>
       <c r="G79" t="n">
-        <v>49256049</v>
+        <v>23203342</v>
       </c>
       <c r="H79" t="n">
         <v>2022</v>
       </c>
       <c r="I79" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J79" t="n">
         <v>1</v>
@@ -4646,7 +4638,7 @@
         <v>0</v>
       </c>
       <c r="N79" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="O79" t="n">
         <v>0</v>
@@ -4655,36 +4647,36 @@
         <v>0</v>
       </c>
       <c r="Q79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
-        <v>44652</v>
+        <v>44621</v>
       </c>
       <c r="B80" t="n">
-        <v>507</v>
+        <v>583.5499877929688</v>
       </c>
       <c r="C80" t="n">
-        <v>541.5999755859375</v>
+        <v>583.5499877929688</v>
       </c>
       <c r="D80" t="n">
-        <v>479</v>
+        <v>478.0499877929688</v>
       </c>
       <c r="E80" t="n">
-        <v>482.3999938964844</v>
+        <v>503.25</v>
       </c>
       <c r="F80" t="n">
-        <v>473.5570068359375</v>
+        <v>494.0248107910156</v>
       </c>
       <c r="G80" t="n">
-        <v>31823532</v>
+        <v>49256049</v>
       </c>
       <c r="H80" t="n">
         <v>2022</v>
       </c>
       <c r="I80" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J80" t="n">
         <v>1</v>
@@ -4699,7 +4691,7 @@
         <v>0</v>
       </c>
       <c r="N80" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="O80" t="n">
         <v>0</v>
@@ -4713,31 +4705,31 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
-        <v>44682</v>
+        <v>44652</v>
       </c>
       <c r="B81" t="n">
+        <v>507</v>
+      </c>
+      <c r="C81" t="n">
+        <v>541.5999755859375</v>
+      </c>
+      <c r="D81" t="n">
+        <v>479</v>
+      </c>
+      <c r="E81" t="n">
         <v>482.3999938964844</v>
       </c>
-      <c r="C81" t="n">
-        <v>583.75</v>
-      </c>
-      <c r="D81" t="n">
-        <v>480</v>
-      </c>
-      <c r="E81" t="n">
-        <v>559.2999877929688</v>
-      </c>
       <c r="F81" t="n">
-        <v>549.0473022460938</v>
+        <v>473.5570068359375</v>
       </c>
       <c r="G81" t="n">
-        <v>45774064</v>
+        <v>31823532</v>
       </c>
       <c r="H81" t="n">
         <v>2022</v>
       </c>
       <c r="I81" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J81" t="n">
         <v>1</v>
@@ -4752,7 +4744,7 @@
         <v>0</v>
       </c>
       <c r="N81" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="O81" t="n">
         <v>0</v>
@@ -4761,36 +4753,36 @@
         <v>0</v>
       </c>
       <c r="Q81" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
-        <v>44713</v>
+        <v>44682</v>
       </c>
       <c r="B82" t="n">
+        <v>482.3999938964844</v>
+      </c>
+      <c r="C82" t="n">
+        <v>583.75</v>
+      </c>
+      <c r="D82" t="n">
+        <v>480</v>
+      </c>
+      <c r="E82" t="n">
         <v>559.2999877929688</v>
       </c>
-      <c r="C82" t="n">
-        <v>577.9500122070312</v>
-      </c>
-      <c r="D82" t="n">
-        <v>403.5499877929688</v>
-      </c>
-      <c r="E82" t="n">
-        <v>418.8500061035156</v>
-      </c>
       <c r="F82" t="n">
-        <v>411.1719665527344</v>
+        <v>549.0473022460938</v>
       </c>
       <c r="G82" t="n">
-        <v>48714721</v>
+        <v>45774064</v>
       </c>
       <c r="H82" t="n">
         <v>2022</v>
       </c>
       <c r="I82" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J82" t="n">
         <v>1</v>
@@ -4805,45 +4797,45 @@
         <v>0</v>
       </c>
       <c r="N82" t="n">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="O82" t="n">
+        <v>0</v>
+      </c>
+      <c r="P82" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q82" t="n">
         <v>2</v>
-      </c>
-      <c r="P82" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q82" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
-        <v>44743</v>
+        <v>44713</v>
       </c>
       <c r="B83" t="n">
-        <v>419</v>
+        <v>559.2999877929688</v>
       </c>
       <c r="C83" t="n">
-        <v>469.7999877929688</v>
+        <v>577.9500122070312</v>
       </c>
       <c r="D83" t="n">
-        <v>416.7000122070312</v>
+        <v>403.5499877929688</v>
       </c>
       <c r="E83" t="n">
-        <v>445.1499938964844</v>
+        <v>418.8500061035156</v>
       </c>
       <c r="F83" t="n">
-        <v>436.9898681640625</v>
+        <v>411.1719665527344</v>
       </c>
       <c r="G83" t="n">
-        <v>24966515</v>
+        <v>48714721</v>
       </c>
       <c r="H83" t="n">
         <v>2022</v>
       </c>
       <c r="I83" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J83" t="n">
         <v>1</v>
@@ -4858,10 +4850,10 @@
         <v>0</v>
       </c>
       <c r="N83" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="O83" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P83" t="n">
         <v>0</v>
@@ -4872,31 +4864,31 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
-        <v>44774</v>
+        <v>44743</v>
       </c>
       <c r="B84" t="n">
-        <v>447.8999938964844</v>
+        <v>419</v>
       </c>
       <c r="C84" t="n">
-        <v>501.5499877929688</v>
+        <v>469.7999877929688</v>
       </c>
       <c r="D84" t="n">
-        <v>429.7000122070312</v>
+        <v>416.7000122070312</v>
       </c>
       <c r="E84" t="n">
-        <v>471.75</v>
+        <v>445.1499938964844</v>
       </c>
       <c r="F84" t="n">
-        <v>463.1022338867188</v>
+        <v>436.9898681640625</v>
       </c>
       <c r="G84" t="n">
-        <v>36969261</v>
+        <v>24966515</v>
       </c>
       <c r="H84" t="n">
         <v>2022</v>
       </c>
       <c r="I84" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J84" t="n">
         <v>1</v>
@@ -4911,7 +4903,7 @@
         <v>0</v>
       </c>
       <c r="N84" t="n">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="O84" t="n">
         <v>0</v>
@@ -4925,31 +4917,31 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
-        <v>44805</v>
+        <v>44774</v>
       </c>
       <c r="B85" t="n">
-        <v>471</v>
+        <v>447.8999938964844</v>
       </c>
       <c r="C85" t="n">
-        <v>533.2999877929688</v>
+        <v>501.5499877929688</v>
       </c>
       <c r="D85" t="n">
-        <v>466.8500061035156</v>
+        <v>429.7000122070312</v>
       </c>
       <c r="E85" t="n">
-        <v>503.25</v>
+        <v>471.75</v>
       </c>
       <c r="F85" t="n">
-        <v>496.043701171875</v>
+        <v>463.1022338867188</v>
       </c>
       <c r="G85" t="n">
-        <v>33873836</v>
+        <v>36969261</v>
       </c>
       <c r="H85" t="n">
         <v>2022</v>
       </c>
       <c r="I85" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J85" t="n">
         <v>1</v>
@@ -4964,7 +4956,7 @@
         <v>0</v>
       </c>
       <c r="N85" t="n">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="O85" t="n">
         <v>0</v>
@@ -4978,31 +4970,31 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="n">
-        <v>44835</v>
+        <v>44805</v>
       </c>
       <c r="B86" t="n">
-        <v>500.5</v>
+        <v>471</v>
       </c>
       <c r="C86" t="n">
-        <v>528.2999877929688</v>
+        <v>533.2999877929688</v>
       </c>
       <c r="D86" t="n">
-        <v>462.5</v>
+        <v>466.8500061035156</v>
       </c>
       <c r="E86" t="n">
-        <v>518.5999755859375</v>
+        <v>503.25</v>
       </c>
       <c r="F86" t="n">
-        <v>511.1738586425781</v>
+        <v>496.043701171875</v>
       </c>
       <c r="G86" t="n">
-        <v>18805756</v>
+        <v>33873836</v>
       </c>
       <c r="H86" t="n">
         <v>2022</v>
       </c>
       <c r="I86" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J86" t="n">
         <v>1</v>
@@ -5017,7 +5009,7 @@
         <v>0</v>
       </c>
       <c r="N86" t="n">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="O86" t="n">
         <v>0</v>
@@ -5026,36 +5018,36 @@
         <v>0</v>
       </c>
       <c r="Q86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="n">
-        <v>44866</v>
+        <v>44835</v>
       </c>
       <c r="B87" t="n">
-        <v>520.25</v>
+        <v>500.5</v>
       </c>
       <c r="C87" t="n">
-        <v>528</v>
+        <v>528.2999877929688</v>
       </c>
       <c r="D87" t="n">
-        <v>477.0499877929688</v>
+        <v>462.5</v>
       </c>
       <c r="E87" t="n">
-        <v>498.8500061035156</v>
+        <v>518.5999755859375</v>
       </c>
       <c r="F87" t="n">
-        <v>491.7066955566406</v>
+        <v>511.1738586425781</v>
       </c>
       <c r="G87" t="n">
-        <v>24675807</v>
+        <v>18805756</v>
       </c>
       <c r="H87" t="n">
         <v>2022</v>
       </c>
       <c r="I87" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J87" t="n">
         <v>1</v>
@@ -5070,7 +5062,7 @@
         <v>0</v>
       </c>
       <c r="N87" t="n">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="O87" t="n">
         <v>0</v>
@@ -5079,36 +5071,36 @@
         <v>0</v>
       </c>
       <c r="Q87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="n">
-        <v>44896</v>
+        <v>44866</v>
       </c>
       <c r="B88" t="n">
-        <v>502.1000061035156</v>
+        <v>520.25</v>
       </c>
       <c r="C88" t="n">
-        <v>539.0999755859375</v>
+        <v>528</v>
       </c>
       <c r="D88" t="n">
-        <v>463.0499877929688</v>
+        <v>477.0499877929688</v>
       </c>
       <c r="E88" t="n">
-        <v>486.1499938964844</v>
+        <v>498.8500061035156</v>
       </c>
       <c r="F88" t="n">
-        <v>479.1885375976562</v>
+        <v>491.7066955566406</v>
       </c>
       <c r="G88" t="n">
-        <v>28076597</v>
+        <v>24675807</v>
       </c>
       <c r="H88" t="n">
         <v>2022</v>
       </c>
       <c r="I88" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J88" t="n">
         <v>1</v>
@@ -5123,10 +5115,10 @@
         <v>0</v>
       </c>
       <c r="N88" t="n">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="O88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P88" t="n">
         <v>0</v>
@@ -5137,31 +5129,31 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
-        <v>44927</v>
+        <v>44896</v>
       </c>
       <c r="B89" t="n">
-        <v>488.6000061035156</v>
+        <v>502.1000061035156</v>
       </c>
       <c r="C89" t="n">
-        <v>495.1000061035156</v>
+        <v>539.0999755859375</v>
       </c>
       <c r="D89" t="n">
-        <v>442</v>
+        <v>463.0499877929688</v>
       </c>
       <c r="E89" t="n">
-        <v>456.9500122070312</v>
+        <v>486.1499938964844</v>
       </c>
       <c r="F89" t="n">
-        <v>450.4067077636719</v>
+        <v>479.1885375976562</v>
       </c>
       <c r="G89" t="n">
-        <v>22024680</v>
+        <v>28076597</v>
       </c>
       <c r="H89" t="n">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="I89" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="J89" t="n">
         <v>1</v>
@@ -5176,10 +5168,10 @@
         <v>0</v>
       </c>
       <c r="N89" t="n">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="O89" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P89" t="n">
         <v>0</v>
@@ -5190,49 +5182,49 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
-        <v>44958</v>
+        <v>44927</v>
       </c>
       <c r="B90" t="n">
-        <v>459.3999938964844</v>
+        <v>488.6000061035156</v>
       </c>
       <c r="C90" t="n">
-        <v>519.4000244140625</v>
+        <v>495.1000061035156</v>
       </c>
       <c r="D90" t="n">
-        <v>456.4500122070312</v>
+        <v>442</v>
       </c>
       <c r="E90" t="n">
-        <v>504.8999938964844</v>
+        <v>456.9500122070312</v>
       </c>
       <c r="F90" t="n">
-        <v>497.6700439453125</v>
+        <v>450.4067077636719</v>
       </c>
       <c r="G90" t="n">
-        <v>25307883</v>
+        <v>22024680</v>
       </c>
       <c r="H90" t="n">
         <v>2023</v>
       </c>
       <c r="I90" t="n">
+        <v>1</v>
+      </c>
+      <c r="J90" t="n">
+        <v>1</v>
+      </c>
+      <c r="K90" t="n">
+        <v>0</v>
+      </c>
+      <c r="L90" t="n">
+        <v>0</v>
+      </c>
+      <c r="M90" t="n">
+        <v>0</v>
+      </c>
+      <c r="N90" t="n">
+        <v>52</v>
+      </c>
+      <c r="O90" t="n">
         <v>2</v>
-      </c>
-      <c r="J90" t="n">
-        <v>1</v>
-      </c>
-      <c r="K90" t="n">
-        <v>0</v>
-      </c>
-      <c r="L90" t="n">
-        <v>0</v>
-      </c>
-      <c r="M90" t="n">
-        <v>0</v>
-      </c>
-      <c r="N90" t="n">
-        <v>5</v>
-      </c>
-      <c r="O90" t="n">
-        <v>0</v>
       </c>
       <c r="P90" t="n">
         <v>0</v>
@@ -5243,31 +5235,31 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="n">
-        <v>44986</v>
+        <v>44958</v>
       </c>
       <c r="B91" t="n">
-        <v>506.25</v>
+        <v>459.3999938964844</v>
       </c>
       <c r="C91" t="n">
-        <v>526</v>
+        <v>519.4000244140625</v>
       </c>
       <c r="D91" t="n">
-        <v>451.75</v>
+        <v>456.4500122070312</v>
       </c>
       <c r="E91" t="n">
-        <v>459.6000061035156</v>
+        <v>504.8999938964844</v>
       </c>
       <c r="F91" t="n">
-        <v>453.0187377929688</v>
+        <v>497.6700439453125</v>
       </c>
       <c r="G91" t="n">
-        <v>14893093</v>
+        <v>25307883</v>
       </c>
       <c r="H91" t="n">
         <v>2023</v>
       </c>
       <c r="I91" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J91" t="n">
         <v>1</v>
@@ -5282,7 +5274,7 @@
         <v>0</v>
       </c>
       <c r="N91" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="O91" t="n">
         <v>0</v>
@@ -5296,31 +5288,31 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="n">
-        <v>45017</v>
+        <v>44986</v>
       </c>
       <c r="B92" t="n">
-        <v>462.9500122070312</v>
+        <v>506.25</v>
       </c>
       <c r="C92" t="n">
-        <v>477.6499938964844</v>
+        <v>526</v>
       </c>
       <c r="D92" t="n">
-        <v>452</v>
+        <v>451.75</v>
       </c>
       <c r="E92" t="n">
-        <v>467.75</v>
+        <v>459.6000061035156</v>
       </c>
       <c r="F92" t="n">
-        <v>461.0520324707031</v>
+        <v>453.0187377929688</v>
       </c>
       <c r="G92" t="n">
-        <v>18314587</v>
+        <v>14893093</v>
       </c>
       <c r="H92" t="n">
         <v>2023</v>
       </c>
       <c r="I92" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J92" t="n">
         <v>1</v>
@@ -5335,7 +5327,7 @@
         <v>0</v>
       </c>
       <c r="N92" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="O92" t="n">
         <v>0</v>
@@ -5344,36 +5336,36 @@
         <v>0</v>
       </c>
       <c r="Q92" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="n">
-        <v>45047</v>
+        <v>45017</v>
       </c>
       <c r="B93" t="n">
+        <v>462.9500122070312</v>
+      </c>
+      <c r="C93" t="n">
+        <v>477.6499938964844</v>
+      </c>
+      <c r="D93" t="n">
+        <v>452</v>
+      </c>
+      <c r="E93" t="n">
         <v>467.75</v>
       </c>
-      <c r="C93" t="n">
-        <v>508.3999938964844</v>
-      </c>
-      <c r="D93" t="n">
-        <v>455.1000061035156</v>
-      </c>
-      <c r="E93" t="n">
-        <v>506.6000061035156</v>
-      </c>
       <c r="F93" t="n">
-        <v>499.3457336425781</v>
+        <v>461.0520324707031</v>
       </c>
       <c r="G93" t="n">
-        <v>32889445</v>
+        <v>18314587</v>
       </c>
       <c r="H93" t="n">
         <v>2023</v>
       </c>
       <c r="I93" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J93" t="n">
         <v>1</v>
@@ -5388,7 +5380,7 @@
         <v>0</v>
       </c>
       <c r="N93" t="n">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="O93" t="n">
         <v>0</v>
@@ -5397,36 +5389,36 @@
         <v>0</v>
       </c>
       <c r="Q93" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="n">
-        <v>45078</v>
+        <v>45047</v>
       </c>
       <c r="B94" t="n">
-        <v>488.5</v>
+        <v>467.75</v>
       </c>
       <c r="C94" t="n">
-        <v>499.7999877929688</v>
+        <v>508.3999938964844</v>
       </c>
       <c r="D94" t="n">
-        <v>459.25</v>
+        <v>455.1000061035156</v>
       </c>
       <c r="E94" t="n">
-        <v>465.0499877929688</v>
+        <v>506.6000061035156</v>
       </c>
       <c r="F94" t="n">
-        <v>458.3906860351562</v>
+        <v>499.3457336425781</v>
       </c>
       <c r="G94" t="n">
-        <v>24705707</v>
+        <v>32889445</v>
       </c>
       <c r="H94" t="n">
         <v>2023</v>
       </c>
       <c r="I94" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J94" t="n">
         <v>1</v>
@@ -5441,7 +5433,7 @@
         <v>0</v>
       </c>
       <c r="N94" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="O94" t="n">
         <v>0</v>
@@ -5450,36 +5442,36 @@
         <v>0</v>
       </c>
       <c r="Q94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="n">
-        <v>45108</v>
+        <v>45078</v>
       </c>
       <c r="B95" t="n">
-        <v>485</v>
+        <v>488.5</v>
       </c>
       <c r="C95" t="n">
-        <v>492</v>
+        <v>499.7999877929688</v>
       </c>
       <c r="D95" t="n">
-        <v>457.5</v>
+        <v>459.25</v>
       </c>
       <c r="E95" t="n">
-        <v>482.7000122070312</v>
+        <v>465.0499877929688</v>
       </c>
       <c r="F95" t="n">
-        <v>475.7879638671875</v>
+        <v>458.3906860351562</v>
       </c>
       <c r="G95" t="n">
-        <v>28616223</v>
+        <v>24705707</v>
       </c>
       <c r="H95" t="n">
         <v>2023</v>
       </c>
       <c r="I95" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J95" t="n">
         <v>1</v>
@@ -5494,7 +5486,7 @@
         <v>0</v>
       </c>
       <c r="N95" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="O95" t="n">
         <v>0</v>
@@ -5508,31 +5500,31 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="n">
-        <v>45139</v>
+        <v>45108</v>
       </c>
       <c r="B96" t="n">
-        <v>485.2000122070312</v>
+        <v>485</v>
       </c>
       <c r="C96" t="n">
-        <v>493.5</v>
+        <v>492</v>
       </c>
       <c r="D96" t="n">
-        <v>438.6000061035156</v>
+        <v>457.5</v>
       </c>
       <c r="E96" t="n">
-        <v>449.3500061035156</v>
+        <v>482.7000122070312</v>
       </c>
       <c r="F96" t="n">
-        <v>442.91552734375</v>
+        <v>475.7879638671875</v>
       </c>
       <c r="G96" t="n">
-        <v>35906013</v>
+        <v>28616223</v>
       </c>
       <c r="H96" t="n">
         <v>2023</v>
       </c>
       <c r="I96" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J96" t="n">
         <v>1</v>
@@ -5547,7 +5539,7 @@
         <v>0</v>
       </c>
       <c r="N96" t="n">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="O96" t="n">
         <v>0</v>
@@ -5561,31 +5553,31 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="n">
-        <v>45170</v>
+        <v>45139</v>
       </c>
       <c r="B97" t="n">
-        <v>458</v>
+        <v>485.2000122070312</v>
       </c>
       <c r="C97" t="n">
-        <v>469.2000122070312</v>
+        <v>493.5</v>
       </c>
       <c r="D97" t="n">
-        <v>414</v>
+        <v>438.6000061035156</v>
       </c>
       <c r="E97" t="n">
-        <v>422.8999938964844</v>
+        <v>449.3500061035156</v>
       </c>
       <c r="F97" t="n">
-        <v>416.8442687988281</v>
+        <v>442.91552734375</v>
       </c>
       <c r="G97" t="n">
-        <v>30157023</v>
+        <v>35906013</v>
       </c>
       <c r="H97" t="n">
         <v>2023</v>
       </c>
       <c r="I97" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J97" t="n">
         <v>1</v>
@@ -5600,7 +5592,7 @@
         <v>0</v>
       </c>
       <c r="N97" t="n">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="O97" t="n">
         <v>0</v>
@@ -5614,31 +5606,31 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="n">
-        <v>45200</v>
+        <v>45170</v>
       </c>
       <c r="B98" t="n">
+        <v>458</v>
+      </c>
+      <c r="C98" t="n">
+        <v>469.2000122070312</v>
+      </c>
+      <c r="D98" t="n">
+        <v>414</v>
+      </c>
+      <c r="E98" t="n">
         <v>422.8999938964844</v>
       </c>
-      <c r="C98" t="n">
-        <v>431</v>
-      </c>
-      <c r="D98" t="n">
-        <v>397.0499877929688</v>
-      </c>
-      <c r="E98" t="n">
-        <v>409.0499877929688</v>
-      </c>
       <c r="F98" t="n">
-        <v>409.0499877929688</v>
+        <v>416.8442687988281</v>
       </c>
       <c r="G98" t="n">
-        <v>26659077</v>
+        <v>30157023</v>
       </c>
       <c r="H98" t="n">
         <v>2023</v>
       </c>
       <c r="I98" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J98" t="n">
         <v>1</v>
@@ -5653,10 +5645,10 @@
         <v>0</v>
       </c>
       <c r="N98" t="n">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="O98" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P98" t="n">
         <v>0</v>
@@ -5667,31 +5659,31 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="n">
-        <v>45231</v>
+        <v>45200</v>
       </c>
       <c r="B99" t="n">
-        <v>409</v>
+        <v>422.8999938964844</v>
       </c>
       <c r="C99" t="n">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="D99" t="n">
-        <v>402.25</v>
+        <v>397.0499877929688</v>
       </c>
       <c r="E99" t="n">
-        <v>433.1499938964844</v>
+        <v>409.0499877929688</v>
       </c>
       <c r="F99" t="n">
-        <v>433.1499938964844</v>
+        <v>409.0499877929688</v>
       </c>
       <c r="G99" t="n">
-        <v>12000540</v>
+        <v>26659077</v>
       </c>
       <c r="H99" t="n">
         <v>2023</v>
       </c>
       <c r="I99" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J99" t="n">
         <v>1</v>
@@ -5706,10 +5698,10 @@
         <v>0</v>
       </c>
       <c r="N99" t="n">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="O99" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P99" t="n">
         <v>0</v>
@@ -5720,31 +5712,31 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="n">
-        <v>45261</v>
+        <v>45231</v>
       </c>
       <c r="B100" t="n">
-        <v>434.8999938964844</v>
+        <v>409</v>
       </c>
       <c r="C100" t="n">
-        <v>463</v>
+        <v>436</v>
       </c>
       <c r="D100" t="n">
-        <v>431.25</v>
+        <v>402.25</v>
       </c>
       <c r="E100" t="n">
-        <v>461.5</v>
+        <v>433.1499938964844</v>
       </c>
       <c r="F100" t="n">
-        <v>461.5</v>
+        <v>433.1499938964844</v>
       </c>
       <c r="G100" t="n">
-        <v>31111423</v>
+        <v>12000540</v>
       </c>
       <c r="H100" t="n">
         <v>2023</v>
       </c>
       <c r="I100" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J100" t="n">
         <v>1</v>
@@ -5759,7 +5751,7 @@
         <v>0</v>
       </c>
       <c r="N100" t="n">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="O100" t="n">
         <v>0</v>
@@ -5773,31 +5765,31 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="n">
-        <v>45292</v>
+        <v>45261</v>
       </c>
       <c r="B101" t="n">
-        <v>464.7999877929688</v>
+        <v>434.8999938964844</v>
       </c>
       <c r="C101" t="n">
-        <v>582.75</v>
+        <v>463</v>
       </c>
       <c r="D101" t="n">
-        <v>461.7000122070312</v>
+        <v>431.25</v>
       </c>
       <c r="E101" t="n">
-        <v>581.2999877929688</v>
+        <v>461.5</v>
       </c>
       <c r="F101" t="n">
-        <v>581.2999877929688</v>
+        <v>461.5</v>
       </c>
       <c r="G101" t="n">
-        <v>45941887</v>
+        <v>31111423</v>
       </c>
       <c r="H101" t="n">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="I101" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="J101" t="n">
         <v>1</v>
@@ -5812,7 +5804,7 @@
         <v>0</v>
       </c>
       <c r="N101" t="n">
-        <v>1</v>
+        <v>48</v>
       </c>
       <c r="O101" t="n">
         <v>0</v>
@@ -5826,31 +5818,31 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="n">
-        <v>45323</v>
+        <v>45292</v>
       </c>
       <c r="B102" t="n">
-        <v>587.4000244140625</v>
+        <v>464.7999877929688</v>
       </c>
       <c r="C102" t="n">
-        <v>620</v>
+        <v>582.75</v>
       </c>
       <c r="D102" t="n">
-        <v>512</v>
+        <v>461.7000122070312</v>
       </c>
       <c r="E102" t="n">
-        <v>565.3499755859375</v>
+        <v>581.2999877929688</v>
       </c>
       <c r="F102" t="n">
-        <v>565.3499755859375</v>
+        <v>581.2999877929688</v>
       </c>
       <c r="G102" t="n">
-        <v>34475856</v>
+        <v>45941887</v>
       </c>
       <c r="H102" t="n">
         <v>2024</v>
       </c>
       <c r="I102" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J102" t="n">
         <v>1</v>
@@ -5865,45 +5857,45 @@
         <v>0</v>
       </c>
       <c r="N102" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="O102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P102" t="n">
         <v>0</v>
       </c>
       <c r="Q102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="n">
-        <v>45352</v>
+        <v>45323</v>
       </c>
       <c r="B103" t="n">
-        <v>568</v>
+        <v>587.4000244140625</v>
       </c>
       <c r="C103" t="n">
-        <v>595.75</v>
+        <v>620</v>
       </c>
       <c r="D103" t="n">
-        <v>498.3500061035156</v>
+        <v>512</v>
       </c>
       <c r="E103" t="n">
-        <v>544.25</v>
+        <v>565.3499755859375</v>
       </c>
       <c r="F103" t="n">
-        <v>544.25</v>
+        <v>565.3499755859375</v>
       </c>
       <c r="G103" t="n">
-        <v>18521199</v>
+        <v>34475856</v>
       </c>
       <c r="H103" t="n">
         <v>2024</v>
       </c>
       <c r="I103" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J103" t="n">
         <v>1</v>
@@ -5918,45 +5910,45 @@
         <v>0</v>
       </c>
       <c r="N103" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="O103" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P103" t="n">
         <v>0</v>
       </c>
       <c r="Q103" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="n">
-        <v>45383</v>
+        <v>45352</v>
       </c>
       <c r="B104" t="n">
-        <v>544.9500122070312</v>
+        <v>568</v>
       </c>
       <c r="C104" t="n">
-        <v>584</v>
+        <v>595.75</v>
       </c>
       <c r="D104" t="n">
-        <v>534.0999755859375</v>
+        <v>498.3500061035156</v>
       </c>
       <c r="E104" t="n">
-        <v>546.5999755859375</v>
+        <v>544.25</v>
       </c>
       <c r="F104" t="n">
-        <v>546.5999755859375</v>
+        <v>544.25</v>
       </c>
       <c r="G104" t="n">
-        <v>28807408</v>
+        <v>18521199</v>
       </c>
       <c r="H104" t="n">
         <v>2024</v>
       </c>
       <c r="I104" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J104" t="n">
         <v>1</v>
@@ -5971,7 +5963,7 @@
         <v>0</v>
       </c>
       <c r="N104" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="O104" t="n">
         <v>0</v>
@@ -5985,31 +5977,31 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="n">
-        <v>45413</v>
+        <v>45383</v>
       </c>
       <c r="B105" t="n">
+        <v>544.9500122070312</v>
+      </c>
+      <c r="C105" t="n">
+        <v>584</v>
+      </c>
+      <c r="D105" t="n">
+        <v>534.0999755859375</v>
+      </c>
+      <c r="E105" t="n">
         <v>546.5999755859375</v>
       </c>
-      <c r="C105" t="n">
-        <v>568.4500122070312</v>
-      </c>
-      <c r="D105" t="n">
-        <v>519.3499755859375</v>
-      </c>
-      <c r="E105" t="n">
-        <v>551.3499755859375</v>
-      </c>
       <c r="F105" t="n">
-        <v>551.3499755859375</v>
+        <v>546.5999755859375</v>
       </c>
       <c r="G105" t="n">
-        <v>27324129</v>
+        <v>28807408</v>
       </c>
       <c r="H105" t="n">
         <v>2024</v>
       </c>
       <c r="I105" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J105" t="n">
         <v>1</v>
@@ -6024,7 +6016,7 @@
         <v>0</v>
       </c>
       <c r="N105" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="O105" t="n">
         <v>0</v>
@@ -6038,56 +6030,514 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="n">
-        <v>45444</v>
+        <v>45413</v>
       </c>
       <c r="B106" t="n">
-        <v>560</v>
+        <v>546.5999755859375</v>
       </c>
       <c r="C106" t="n">
-        <v>590</v>
+        <v>568.4500122070312</v>
       </c>
       <c r="D106" t="n">
-        <v>490</v>
+        <v>519.3499755859375</v>
       </c>
       <c r="E106" t="n">
-        <v>588.7000122070312</v>
+        <v>551.3499755859375</v>
       </c>
       <c r="F106" t="n">
-        <v>588.7000122070312</v>
+        <v>551.3499755859375</v>
       </c>
       <c r="G106" t="n">
-        <v>10601396</v>
+        <v>27324129</v>
       </c>
       <c r="H106" t="n">
         <v>2024</v>
       </c>
       <c r="I106" t="n">
+        <v>5</v>
+      </c>
+      <c r="J106" t="n">
+        <v>1</v>
+      </c>
+      <c r="K106" t="n">
+        <v>0</v>
+      </c>
+      <c r="L106" t="n">
+        <v>0</v>
+      </c>
+      <c r="M106" t="n">
+        <v>0</v>
+      </c>
+      <c r="N106" t="n">
+        <v>18</v>
+      </c>
+      <c r="O106" t="n">
+        <v>0</v>
+      </c>
+      <c r="P106" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q106" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>45444</v>
+      </c>
+      <c r="B107" t="n">
+        <v>560</v>
+      </c>
+      <c r="C107" t="n">
+        <v>590</v>
+      </c>
+      <c r="D107" t="n">
+        <v>490</v>
+      </c>
+      <c r="E107" t="n">
+        <v>588.7000122070312</v>
+      </c>
+      <c r="F107" t="n">
+        <v>588.7000122070312</v>
+      </c>
+      <c r="G107" t="n">
+        <v>10601396</v>
+      </c>
+      <c r="H107" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I107" t="n">
         <v>6</v>
       </c>
-      <c r="J106" t="n">
-        <v>1</v>
-      </c>
-      <c r="K106" t="n">
-        <v>0</v>
-      </c>
-      <c r="L106" t="n">
-        <v>0</v>
-      </c>
-      <c r="M106" t="n">
-        <v>0</v>
-      </c>
-      <c r="N106" t="n">
+      <c r="J107" t="n">
+        <v>1</v>
+      </c>
+      <c r="K107" t="n">
+        <v>0</v>
+      </c>
+      <c r="L107" t="n">
+        <v>0</v>
+      </c>
+      <c r="M107" t="n">
+        <v>0</v>
+      </c>
+      <c r="N107" t="n">
         <v>22</v>
       </c>
-      <c r="O106" t="n">
-        <v>0</v>
-      </c>
-      <c r="P106" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q106" t="n">
+      <c r="O107" t="n">
+        <v>0</v>
+      </c>
+      <c r="P107" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q107" t="n">
         <v>2</v>
       </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>45474</v>
+      </c>
+      <c r="B108" t="n">
+        <v>623.1171328462455</v>
+      </c>
+      <c r="C108" t="n">
+        <v>681.4677213463544</v>
+      </c>
+      <c r="D108" t="n">
+        <v>606.8067115834095</v>
+      </c>
+      <c r="E108" t="n">
+        <v>673.1390380859375</v>
+      </c>
+      <c r="F108" t="inlineStr"/>
+      <c r="G108" t="n">
+        <v>28138651</v>
+      </c>
+      <c r="H108" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I108" t="n">
+        <v>7</v>
+      </c>
+      <c r="J108" t="n">
+        <v>1</v>
+      </c>
+      <c r="K108" t="n">
+        <v>0</v>
+      </c>
+      <c r="L108" t="n">
+        <v>0</v>
+      </c>
+      <c r="M108" t="n">
+        <v>0</v>
+      </c>
+      <c r="N108" t="n">
+        <v>27</v>
+      </c>
+      <c r="O108" t="inlineStr"/>
+      <c r="P108" t="inlineStr"/>
+      <c r="Q108" t="inlineStr"/>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>45505</v>
+      </c>
+      <c r="B109" t="n">
+        <v>672.6433310200929</v>
+      </c>
+      <c r="C109" t="n">
+        <v>676.9563940547063</v>
+      </c>
+      <c r="D109" t="n">
+        <v>579.0443561009864</v>
+      </c>
+      <c r="E109" t="n">
+        <v>601.7996215820312</v>
+      </c>
+      <c r="F109" t="inlineStr"/>
+      <c r="G109" t="n">
+        <v>24793258</v>
+      </c>
+      <c r="H109" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I109" t="n">
+        <v>8</v>
+      </c>
+      <c r="J109" t="n">
+        <v>1</v>
+      </c>
+      <c r="K109" t="n">
+        <v>0</v>
+      </c>
+      <c r="L109" t="n">
+        <v>0</v>
+      </c>
+      <c r="M109" t="n">
+        <v>0</v>
+      </c>
+      <c r="N109" t="n">
+        <v>31</v>
+      </c>
+      <c r="O109" t="inlineStr"/>
+      <c r="P109" t="inlineStr"/>
+      <c r="Q109" t="inlineStr"/>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>45536</v>
+      </c>
+      <c r="B110" t="n">
+        <v>631.7433588996328</v>
+      </c>
+      <c r="C110" t="n">
+        <v>684.0953017075525</v>
+      </c>
+      <c r="D110" t="n">
+        <v>591.9340356455563</v>
+      </c>
+      <c r="E110" t="n">
+        <v>613.1524658203125</v>
+      </c>
+      <c r="F110" t="inlineStr"/>
+      <c r="G110" t="n">
+        <v>79047265</v>
+      </c>
+      <c r="H110" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I110" t="n">
+        <v>9</v>
+      </c>
+      <c r="J110" t="n">
+        <v>1</v>
+      </c>
+      <c r="K110" t="n">
+        <v>0</v>
+      </c>
+      <c r="L110" t="n">
+        <v>0</v>
+      </c>
+      <c r="M110" t="n">
+        <v>0</v>
+      </c>
+      <c r="N110" t="n">
+        <v>35</v>
+      </c>
+      <c r="O110" t="inlineStr"/>
+      <c r="P110" t="inlineStr"/>
+      <c r="Q110" t="inlineStr"/>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>45566</v>
+      </c>
+      <c r="B111" t="n">
+        <v>622</v>
+      </c>
+      <c r="C111" t="n">
+        <v>627</v>
+      </c>
+      <c r="D111" t="n">
+        <v>517</v>
+      </c>
+      <c r="E111" t="n">
+        <v>519.1500244140625</v>
+      </c>
+      <c r="F111" t="inlineStr"/>
+      <c r="G111" t="n">
+        <v>21044555</v>
+      </c>
+      <c r="H111" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I111" t="n">
+        <v>10</v>
+      </c>
+      <c r="J111" t="n">
+        <v>1</v>
+      </c>
+      <c r="K111" t="n">
+        <v>0</v>
+      </c>
+      <c r="L111" t="n">
+        <v>0</v>
+      </c>
+      <c r="M111" t="n">
+        <v>0</v>
+      </c>
+      <c r="N111" t="n">
+        <v>40</v>
+      </c>
+      <c r="O111" t="inlineStr"/>
+      <c r="P111" t="inlineStr"/>
+      <c r="Q111" t="inlineStr"/>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>45597</v>
+      </c>
+      <c r="B112" t="n">
+        <v>523</v>
+      </c>
+      <c r="C112" t="n">
+        <v>553</v>
+      </c>
+      <c r="D112" t="n">
+        <v>442.5</v>
+      </c>
+      <c r="E112" t="n">
+        <v>479.75</v>
+      </c>
+      <c r="F112" t="inlineStr"/>
+      <c r="G112" t="n">
+        <v>19819897</v>
+      </c>
+      <c r="H112" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I112" t="n">
+        <v>11</v>
+      </c>
+      <c r="J112" t="n">
+        <v>1</v>
+      </c>
+      <c r="K112" t="n">
+        <v>0</v>
+      </c>
+      <c r="L112" t="n">
+        <v>0</v>
+      </c>
+      <c r="M112" t="n">
+        <v>0</v>
+      </c>
+      <c r="N112" t="n">
+        <v>44</v>
+      </c>
+      <c r="O112" t="inlineStr"/>
+      <c r="P112" t="inlineStr"/>
+      <c r="Q112" t="inlineStr"/>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>45627</v>
+      </c>
+      <c r="B113" t="n">
+        <v>482.3999938964844</v>
+      </c>
+      <c r="C113" t="n">
+        <v>524.25</v>
+      </c>
+      <c r="D113" t="n">
+        <v>475.1000061035156</v>
+      </c>
+      <c r="E113" t="n">
+        <v>498.7000122070312</v>
+      </c>
+      <c r="F113" t="inlineStr"/>
+      <c r="G113" t="n">
+        <v>15076505</v>
+      </c>
+      <c r="H113" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I113" t="n">
+        <v>12</v>
+      </c>
+      <c r="J113" t="n">
+        <v>1</v>
+      </c>
+      <c r="K113" t="n">
+        <v>0</v>
+      </c>
+      <c r="L113" t="n">
+        <v>0</v>
+      </c>
+      <c r="M113" t="n">
+        <v>0</v>
+      </c>
+      <c r="N113" t="n">
+        <v>48</v>
+      </c>
+      <c r="O113" t="inlineStr"/>
+      <c r="P113" t="inlineStr"/>
+      <c r="Q113" t="inlineStr"/>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>45658</v>
+      </c>
+      <c r="B114" t="n">
+        <v>502.25</v>
+      </c>
+      <c r="C114" t="n">
+        <v>517.9000244140625</v>
+      </c>
+      <c r="D114" t="n">
+        <v>464.3999938964844</v>
+      </c>
+      <c r="E114" t="n">
+        <v>486</v>
+      </c>
+      <c r="F114" t="inlineStr"/>
+      <c r="G114" t="n">
+        <v>13885034</v>
+      </c>
+      <c r="H114" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I114" t="n">
+        <v>1</v>
+      </c>
+      <c r="J114" t="n">
+        <v>1</v>
+      </c>
+      <c r="K114" t="n">
+        <v>0</v>
+      </c>
+      <c r="L114" t="n">
+        <v>0</v>
+      </c>
+      <c r="M114" t="n">
+        <v>0</v>
+      </c>
+      <c r="N114" t="n">
+        <v>1</v>
+      </c>
+      <c r="O114" t="inlineStr"/>
+      <c r="P114" t="inlineStr"/>
+      <c r="Q114" t="inlineStr"/>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>45689</v>
+      </c>
+      <c r="B115" t="n">
+        <v>487</v>
+      </c>
+      <c r="C115" t="n">
+        <v>489</v>
+      </c>
+      <c r="D115" t="n">
+        <v>367</v>
+      </c>
+      <c r="E115" t="n">
+        <v>370.3500061035156</v>
+      </c>
+      <c r="F115" t="inlineStr"/>
+      <c r="G115" t="n">
+        <v>20025550</v>
+      </c>
+      <c r="H115" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I115" t="n">
+        <v>2</v>
+      </c>
+      <c r="J115" t="n">
+        <v>1</v>
+      </c>
+      <c r="K115" t="n">
+        <v>0</v>
+      </c>
+      <c r="L115" t="n">
+        <v>0</v>
+      </c>
+      <c r="M115" t="n">
+        <v>0</v>
+      </c>
+      <c r="N115" t="n">
+        <v>5</v>
+      </c>
+      <c r="O115" t="inlineStr"/>
+      <c r="P115" t="inlineStr"/>
+      <c r="Q115" t="inlineStr"/>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>45717</v>
+      </c>
+      <c r="B116" t="n">
+        <v>370.3500061035156</v>
+      </c>
+      <c r="C116" t="n">
+        <v>421.7999877929688</v>
+      </c>
+      <c r="D116" t="n">
+        <v>360.25</v>
+      </c>
+      <c r="E116" t="n">
+        <v>412.3500061035156</v>
+      </c>
+      <c r="F116" t="inlineStr"/>
+      <c r="G116" t="n">
+        <v>12382813</v>
+      </c>
+      <c r="H116" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I116" t="n">
+        <v>3</v>
+      </c>
+      <c r="J116" t="n">
+        <v>1</v>
+      </c>
+      <c r="K116" t="n">
+        <v>0</v>
+      </c>
+      <c r="L116" t="n">
+        <v>0</v>
+      </c>
+      <c r="M116" t="n">
+        <v>0</v>
+      </c>
+      <c r="N116" t="n">
+        <v>9</v>
+      </c>
+      <c r="O116" t="inlineStr"/>
+      <c r="P116" t="inlineStr"/>
+      <c r="Q116" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
